--- a/data/part_1_df_title_subset.xlsx
+++ b/data/part_1_df_title_subset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B28082-16A9-6D4A-9EF5-C31B63129A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB73F831-8C20-E644-85A1-7F37FFD16DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33180" yWindow="500" windowWidth="34900" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="661">
   <si>
     <t>type</t>
   </si>
@@ -1852,15 +1852,6 @@
     <t>facemarkup</t>
   </si>
   <si>
-    <t>unrendered MATH ML face markup</t>
-  </si>
-  <si>
-    <t>unrendered face markup for chemical formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unrendered face markup  </t>
-  </si>
-  <si>
     <t>all caps; Two languages in &lt;title&gt;; incomplete title in metadata</t>
   </si>
   <si>
@@ -1874,6 +1865,162 @@
   </si>
   <si>
     <t>Correct title; all caps</t>
+  </si>
+  <si>
+    <t>Correct title; includes face markup</t>
+  </si>
+  <si>
+    <t>includes face markup for chemical formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">includes face markup  </t>
+  </si>
+  <si>
+    <t>includes MATH ML face markup</t>
+  </si>
+  <si>
+    <t>two &lt;title&gt; elements</t>
+  </si>
+  <si>
+    <t>"fr"</t>
+  </si>
+  <si>
+    <t>Correct title, translated article</t>
+  </si>
+  <si>
+    <t>"ru"</t>
+  </si>
+  <si>
+    <t>Original language article, translated metadata</t>
+  </si>
+  <si>
+    <t>Original language article, translated title</t>
+  </si>
+  <si>
+    <t>Can't verify</t>
+  </si>
+  <si>
+    <t>title length is not the same</t>
+  </si>
+  <si>
+    <t>Original language article, translated title; includes both languages in &lt;title&gt;</t>
+  </si>
+  <si>
+    <t>"es"</t>
+  </si>
+  <si>
+    <t>Original language article, translated title in article</t>
+  </si>
+  <si>
+    <t>"pt","en"</t>
+  </si>
+  <si>
+    <t>Correct title; all caps; includes subtitle</t>
+  </si>
+  <si>
+    <t>metadata for book review does not match article</t>
+  </si>
+  <si>
+    <t>EN translation in article not included in metadata</t>
+  </si>
+  <si>
+    <t>title contains formatting hex codes for line breaks</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>landing pages includes &lt;br&gt; for two titles of article, the &lt;br&gt; is in the metadata as &amp;lt;br&amp;gt;</t>
+  </si>
+  <si>
+    <t>404 page</t>
+  </si>
+  <si>
+    <t>metadata has "en" but article has title in "es" and "ru"</t>
+  </si>
+  <si>
+    <t>single char in &lt;title&gt;, &lt;original_language_title&gt; is Korean</t>
+  </si>
+  <si>
+    <t>correct use of &lt;subtitle&gt;</t>
+  </si>
+  <si>
+    <t>no title at all in metadata which is weird as this is a required element</t>
+  </si>
+  <si>
+    <t>title is missing; en and id in artcle</t>
+  </si>
+  <si>
+    <t>incorrect title metadata</t>
+  </si>
+  <si>
+    <t>the article landing page and PDF seem to be a real article</t>
+  </si>
+  <si>
+    <t>no access to PDF</t>
+  </si>
+  <si>
+    <t>"hu"</t>
+  </si>
+  <si>
+    <t>the &lt;title&gt; elements and content are duplicated</t>
+  </si>
+  <si>
+    <t>&lt;subtitle&gt; element empty and self closing</t>
+  </si>
+  <si>
+    <t>title only contains one word and is missing 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"pt" </t>
+  </si>
+  <si>
+    <t>incorrect title metadata; all caps</t>
+  </si>
+  <si>
+    <t>metadata and title do not match - either missing terms or partially translated?</t>
+  </si>
+  <si>
+    <t>&lt;title&gt; and &lt;original_language_title&gt; contents are the same</t>
+  </si>
+  <si>
+    <t>"nl"</t>
+  </si>
+  <si>
+    <t>translated abstract on landing page but not title</t>
+  </si>
+  <si>
+    <t>"zh" in &lt;title&gt;, "en" in &lt;original_laguage_title&gt;</t>
+  </si>
+  <si>
+    <t>"hr"</t>
+  </si>
+  <si>
+    <t>front matter</t>
+  </si>
+  <si>
+    <t>404 page not found</t>
+  </si>
+  <si>
+    <t>difference between metadata and landing page. Metadata matches article.</t>
+  </si>
+  <si>
+    <t>Incorrect title metadata</t>
+  </si>
+  <si>
+    <t>Missing subtitle</t>
+  </si>
+  <si>
+    <t>metadata has two languages, landing page has en, pdf has ar</t>
+  </si>
+  <si>
+    <t>"ru" and "en" PDFs available, but only "ru" in metadata</t>
+  </si>
+  <si>
+    <t>title available in article in "pt" and "en" but only "pt" in metadata</t>
+  </si>
+  <si>
+    <t>Original language article, translated title in article; all caps</t>
   </si>
 </sst>
 </file>
@@ -1892,6 +2039,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1900,12 +2048,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1946,7 +2100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1957,14 +2111,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2268,12 +2426,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N301"/>
+  <dimension ref="A1:O301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="E201" sqref="E201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2285,9 +2443,10 @@
     <col min="7" max="12" width="16.83203125" customWidth="1"/>
     <col min="13" max="13" width="33.83203125" customWidth="1"/>
     <col min="14" max="14" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="71.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2300,25 +2459,25 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>594</v>
       </c>
       <c r="M1" s="4" t="s">
@@ -2327,8 +2486,11 @@
       <c r="N1" s="4" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="176" x14ac:dyDescent="0.2">
+      <c r="O1" s="4" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="176" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2363,10 +2525,10 @@
         <v>598</v>
       </c>
       <c r="M2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="112" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2404,10 +2566,10 @@
         <v>598</v>
       </c>
       <c r="M3" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2445,7 +2607,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2483,7 +2645,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2521,7 +2683,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2559,10 +2721,10 @@
         <v>598</v>
       </c>
       <c r="M7" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2600,7 +2762,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2638,7 +2800,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2676,7 +2838,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2714,7 +2876,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2755,7 +2917,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2790,13 +2952,13 @@
         <v>598</v>
       </c>
       <c r="M13" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="N13" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2837,7 +2999,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2872,13 +3034,13 @@
         <v>598</v>
       </c>
       <c r="M15" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="N15" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2913,7 +3075,7 @@
         <v>598</v>
       </c>
       <c r="M16" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="N16" t="s">
         <v>598</v>
@@ -2992,13 +3154,13 @@
         <v>591</v>
       </c>
       <c r="K18" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="L18" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M18" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="N18" t="s">
         <v>598</v>
@@ -3130,7 +3292,7 @@
         <v>598</v>
       </c>
       <c r="M21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="N21" t="s">
         <v>595</v>
@@ -3209,7 +3371,7 @@
         <v>598</v>
       </c>
       <c r="J23" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="K23" t="s">
         <v>595</v>
@@ -3218,7 +3380,7 @@
         <v>595</v>
       </c>
       <c r="M23" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="N23" t="s">
         <v>595</v>
@@ -3259,7 +3421,7 @@
         <v>595</v>
       </c>
       <c r="L24" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="M24" t="s">
         <v>592</v>
@@ -3297,7 +3459,7 @@
         <v>598</v>
       </c>
       <c r="J25" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="K25" t="s">
         <v>595</v>
@@ -3438,7 +3600,7 @@
         <v>595</v>
       </c>
       <c r="M28" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="N28" t="s">
         <v>595</v>
@@ -3460,6 +3622,33 @@
       <c r="E29">
         <v>235</v>
       </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>598</v>
+      </c>
+      <c r="H29" t="s">
+        <v>598</v>
+      </c>
+      <c r="I29" t="s">
+        <v>595</v>
+      </c>
+      <c r="J29" t="s">
+        <v>591</v>
+      </c>
+      <c r="K29" t="s">
+        <v>598</v>
+      </c>
+      <c r="L29" t="s">
+        <v>598</v>
+      </c>
+      <c r="M29" t="s">
+        <v>609</v>
+      </c>
+      <c r="N29" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="30" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
@@ -3477,6 +3666,33 @@
       <c r="E30">
         <v>235</v>
       </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>598</v>
+      </c>
+      <c r="H30" t="s">
+        <v>598</v>
+      </c>
+      <c r="I30" t="s">
+        <v>598</v>
+      </c>
+      <c r="J30" t="s">
+        <v>591</v>
+      </c>
+      <c r="K30" t="s">
+        <v>595</v>
+      </c>
+      <c r="L30" t="s">
+        <v>595</v>
+      </c>
+      <c r="M30" t="s">
+        <v>608</v>
+      </c>
+      <c r="N30" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="31" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
@@ -3494,6 +3710,33 @@
       <c r="E31">
         <v>234</v>
       </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>598</v>
+      </c>
+      <c r="H31" t="s">
+        <v>598</v>
+      </c>
+      <c r="I31" t="s">
+        <v>598</v>
+      </c>
+      <c r="J31" t="s">
+        <v>591</v>
+      </c>
+      <c r="K31" t="s">
+        <v>595</v>
+      </c>
+      <c r="L31" t="s">
+        <v>595</v>
+      </c>
+      <c r="M31" t="s">
+        <v>592</v>
+      </c>
+      <c r="N31" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="32" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
@@ -3511,8 +3754,35 @@
       <c r="E32">
         <v>233</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>598</v>
+      </c>
+      <c r="H32" t="s">
+        <v>598</v>
+      </c>
+      <c r="I32" t="s">
+        <v>598</v>
+      </c>
+      <c r="J32" t="s">
+        <v>591</v>
+      </c>
+      <c r="K32" t="s">
+        <v>595</v>
+      </c>
+      <c r="L32" t="s">
+        <v>595</v>
+      </c>
+      <c r="M32" t="s">
+        <v>592</v>
+      </c>
+      <c r="N32" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3528,8 +3798,35 @@
       <c r="E33">
         <v>232</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>598</v>
+      </c>
+      <c r="H33" t="s">
+        <v>598</v>
+      </c>
+      <c r="I33" t="s">
+        <v>598</v>
+      </c>
+      <c r="J33" t="s">
+        <v>591</v>
+      </c>
+      <c r="K33" t="s">
+        <v>595</v>
+      </c>
+      <c r="L33" t="s">
+        <v>595</v>
+      </c>
+      <c r="M33" t="s">
+        <v>592</v>
+      </c>
+      <c r="N33" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3545,8 +3842,35 @@
       <c r="E34">
         <v>232</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>598</v>
+      </c>
+      <c r="H34" t="s">
+        <v>598</v>
+      </c>
+      <c r="I34" t="s">
+        <v>598</v>
+      </c>
+      <c r="J34" t="s">
+        <v>591</v>
+      </c>
+      <c r="K34" t="s">
+        <v>595</v>
+      </c>
+      <c r="L34" t="s">
+        <v>607</v>
+      </c>
+      <c r="M34" t="s">
+        <v>592</v>
+      </c>
+      <c r="N34" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3562,8 +3886,35 @@
       <c r="E35">
         <v>232</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>598</v>
+      </c>
+      <c r="H35" t="s">
+        <v>598</v>
+      </c>
+      <c r="I35" t="s">
+        <v>598</v>
+      </c>
+      <c r="J35" t="s">
+        <v>591</v>
+      </c>
+      <c r="K35" t="s">
+        <v>595</v>
+      </c>
+      <c r="L35" t="s">
+        <v>595</v>
+      </c>
+      <c r="M35" t="s">
+        <v>592</v>
+      </c>
+      <c r="N35" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3579,8 +3930,35 @@
       <c r="E36">
         <v>232</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>598</v>
+      </c>
+      <c r="H36" t="s">
+        <v>598</v>
+      </c>
+      <c r="I36" t="s">
+        <v>598</v>
+      </c>
+      <c r="J36" t="s">
+        <v>591</v>
+      </c>
+      <c r="K36" t="s">
+        <v>595</v>
+      </c>
+      <c r="L36" t="s">
+        <v>595</v>
+      </c>
+      <c r="M36" t="s">
+        <v>592</v>
+      </c>
+      <c r="N36" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3596,8 +3974,35 @@
       <c r="E37">
         <v>231</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>598</v>
+      </c>
+      <c r="H37" t="s">
+        <v>613</v>
+      </c>
+      <c r="I37" t="s">
+        <v>598</v>
+      </c>
+      <c r="J37" t="s">
+        <v>614</v>
+      </c>
+      <c r="K37" t="s">
+        <v>598</v>
+      </c>
+      <c r="L37" t="s">
+        <v>595</v>
+      </c>
+      <c r="M37" t="s">
+        <v>615</v>
+      </c>
+      <c r="N37" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3613,8 +4018,35 @@
       <c r="E38">
         <v>230</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>598</v>
+      </c>
+      <c r="H38" t="s">
+        <v>598</v>
+      </c>
+      <c r="I38" t="s">
+        <v>598</v>
+      </c>
+      <c r="J38" t="s">
+        <v>591</v>
+      </c>
+      <c r="K38" t="s">
+        <v>595</v>
+      </c>
+      <c r="L38" t="s">
+        <v>595</v>
+      </c>
+      <c r="M38" t="s">
+        <v>592</v>
+      </c>
+      <c r="N38" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3630,8 +4062,35 @@
       <c r="E39">
         <v>229</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>598</v>
+      </c>
+      <c r="H39" t="s">
+        <v>598</v>
+      </c>
+      <c r="I39" t="s">
+        <v>598</v>
+      </c>
+      <c r="J39" t="s">
+        <v>591</v>
+      </c>
+      <c r="K39" t="s">
+        <v>595</v>
+      </c>
+      <c r="L39" t="s">
+        <v>595</v>
+      </c>
+      <c r="M39" t="s">
+        <v>592</v>
+      </c>
+      <c r="N39" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3647,8 +4106,35 @@
       <c r="E40">
         <v>229</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>598</v>
+      </c>
+      <c r="H40" t="s">
+        <v>598</v>
+      </c>
+      <c r="I40" t="s">
+        <v>598</v>
+      </c>
+      <c r="J40" t="s">
+        <v>616</v>
+      </c>
+      <c r="K40" t="s">
+        <v>607</v>
+      </c>
+      <c r="L40" t="s">
+        <v>597</v>
+      </c>
+      <c r="M40" t="s">
+        <v>592</v>
+      </c>
+      <c r="N40" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3664,8 +4150,35 @@
       <c r="E41">
         <v>229</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>598</v>
+      </c>
+      <c r="H41" t="s">
+        <v>598</v>
+      </c>
+      <c r="I41" t="s">
+        <v>598</v>
+      </c>
+      <c r="J41" t="s">
+        <v>591</v>
+      </c>
+      <c r="K41" t="s">
+        <v>595</v>
+      </c>
+      <c r="L41" t="s">
+        <v>595</v>
+      </c>
+      <c r="M41" t="s">
+        <v>592</v>
+      </c>
+      <c r="N41" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3681,8 +4194,35 @@
       <c r="E42">
         <v>228</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>598</v>
+      </c>
+      <c r="H42" t="s">
+        <v>598</v>
+      </c>
+      <c r="I42" t="s">
+        <v>598</v>
+      </c>
+      <c r="J42" t="s">
+        <v>591</v>
+      </c>
+      <c r="K42" t="s">
+        <v>598</v>
+      </c>
+      <c r="L42" t="s">
+        <v>598</v>
+      </c>
+      <c r="M42" t="s">
+        <v>617</v>
+      </c>
+      <c r="N42" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3698,8 +4238,35 @@
       <c r="E43">
         <v>228</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>598</v>
+      </c>
+      <c r="H43" t="s">
+        <v>598</v>
+      </c>
+      <c r="I43" t="s">
+        <v>595</v>
+      </c>
+      <c r="J43" t="s">
+        <v>591</v>
+      </c>
+      <c r="K43" t="s">
+        <v>598</v>
+      </c>
+      <c r="L43" t="s">
+        <v>598</v>
+      </c>
+      <c r="M43" t="s">
+        <v>611</v>
+      </c>
+      <c r="N43" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3715,8 +4282,35 @@
       <c r="E44">
         <v>227</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>598</v>
+      </c>
+      <c r="H44" t="s">
+        <v>598</v>
+      </c>
+      <c r="I44" t="s">
+        <v>598</v>
+      </c>
+      <c r="J44" t="s">
+        <v>591</v>
+      </c>
+      <c r="K44" t="s">
+        <v>595</v>
+      </c>
+      <c r="L44" t="s">
+        <v>595</v>
+      </c>
+      <c r="M44" t="s">
+        <v>592</v>
+      </c>
+      <c r="N44" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3732,8 +4326,35 @@
       <c r="E45">
         <v>227</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>598</v>
+      </c>
+      <c r="H45" t="s">
+        <v>598</v>
+      </c>
+      <c r="I45" t="s">
+        <v>598</v>
+      </c>
+      <c r="J45" t="s">
+        <v>591</v>
+      </c>
+      <c r="K45" t="s">
+        <v>595</v>
+      </c>
+      <c r="L45" t="s">
+        <v>595</v>
+      </c>
+      <c r="M45" t="s">
+        <v>592</v>
+      </c>
+      <c r="N45" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3749,8 +4370,35 @@
       <c r="E46">
         <v>227</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>598</v>
+      </c>
+      <c r="H46" t="s">
+        <v>595</v>
+      </c>
+      <c r="I46" t="s">
+        <v>598</v>
+      </c>
+      <c r="J46" t="s">
+        <v>591</v>
+      </c>
+      <c r="K46" t="s">
+        <v>595</v>
+      </c>
+      <c r="L46" t="s">
+        <v>595</v>
+      </c>
+      <c r="M46" t="s">
+        <v>618</v>
+      </c>
+      <c r="N46" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3766,8 +4414,35 @@
       <c r="E47">
         <v>227</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>598</v>
+      </c>
+      <c r="H47" t="s">
+        <v>598</v>
+      </c>
+      <c r="I47" t="s">
+        <v>598</v>
+      </c>
+      <c r="J47" t="s">
+        <v>591</v>
+      </c>
+      <c r="K47" t="s">
+        <v>595</v>
+      </c>
+      <c r="L47" t="s">
+        <v>595</v>
+      </c>
+      <c r="M47" t="s">
+        <v>592</v>
+      </c>
+      <c r="N47" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3783,8 +4458,35 @@
       <c r="E48">
         <v>224</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>598</v>
+      </c>
+      <c r="H48" t="s">
+        <v>598</v>
+      </c>
+      <c r="I48" t="s">
+        <v>598</v>
+      </c>
+      <c r="J48" t="s">
+        <v>591</v>
+      </c>
+      <c r="K48" t="s">
+        <v>595</v>
+      </c>
+      <c r="L48" t="s">
+        <v>595</v>
+      </c>
+      <c r="M48" t="s">
+        <v>592</v>
+      </c>
+      <c r="N48" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3800,8 +4502,35 @@
       <c r="E49">
         <v>223</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>598</v>
+      </c>
+      <c r="H49" t="s">
+        <v>598</v>
+      </c>
+      <c r="I49" t="s">
+        <v>598</v>
+      </c>
+      <c r="J49" t="s">
+        <v>591</v>
+      </c>
+      <c r="K49" t="s">
+        <v>607</v>
+      </c>
+      <c r="L49" t="s">
+        <v>607</v>
+      </c>
+      <c r="M49" t="s">
+        <v>619</v>
+      </c>
+      <c r="N49" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3817,8 +4546,35 @@
       <c r="E50">
         <v>222</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>598</v>
+      </c>
+      <c r="H50" t="s">
+        <v>598</v>
+      </c>
+      <c r="I50" t="s">
+        <v>598</v>
+      </c>
+      <c r="J50" t="s">
+        <v>591</v>
+      </c>
+      <c r="K50" t="s">
+        <v>607</v>
+      </c>
+      <c r="L50" t="s">
+        <v>607</v>
+      </c>
+      <c r="M50" t="s">
+        <v>619</v>
+      </c>
+      <c r="N50" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3834,8 +4590,35 @@
       <c r="E51">
         <v>221</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>598</v>
+      </c>
+      <c r="H51" t="s">
+        <v>598</v>
+      </c>
+      <c r="I51" t="s">
+        <v>598</v>
+      </c>
+      <c r="J51" t="s">
+        <v>591</v>
+      </c>
+      <c r="K51" t="s">
+        <v>595</v>
+      </c>
+      <c r="L51" t="s">
+        <v>595</v>
+      </c>
+      <c r="M51" t="s">
+        <v>608</v>
+      </c>
+      <c r="N51" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3851,8 +4634,35 @@
       <c r="E52">
         <v>221</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>598</v>
+      </c>
+      <c r="H52" t="s">
+        <v>598</v>
+      </c>
+      <c r="I52" t="s">
+        <v>598</v>
+      </c>
+      <c r="J52" t="s">
+        <v>591</v>
+      </c>
+      <c r="K52" t="s">
+        <v>595</v>
+      </c>
+      <c r="L52" t="s">
+        <v>595</v>
+      </c>
+      <c r="M52" t="s">
+        <v>592</v>
+      </c>
+      <c r="N52" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3868,8 +4678,35 @@
       <c r="E53">
         <v>220</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>598</v>
+      </c>
+      <c r="H53" t="s">
+        <v>598</v>
+      </c>
+      <c r="I53" t="s">
+        <v>598</v>
+      </c>
+      <c r="J53" t="s">
+        <v>591</v>
+      </c>
+      <c r="K53" t="s">
+        <v>595</v>
+      </c>
+      <c r="L53" t="s">
+        <v>595</v>
+      </c>
+      <c r="M53" t="s">
+        <v>592</v>
+      </c>
+      <c r="N53" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3885,8 +4722,35 @@
       <c r="E54">
         <v>219</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>598</v>
+      </c>
+      <c r="H54" t="s">
+        <v>598</v>
+      </c>
+      <c r="I54" t="s">
+        <v>598</v>
+      </c>
+      <c r="J54" t="s">
+        <v>591</v>
+      </c>
+      <c r="K54" t="s">
+        <v>598</v>
+      </c>
+      <c r="L54" t="s">
+        <v>607</v>
+      </c>
+      <c r="M54" t="s">
+        <v>617</v>
+      </c>
+      <c r="N54" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3902,8 +4766,35 @@
       <c r="E55">
         <v>219</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>598</v>
+      </c>
+      <c r="H55" t="s">
+        <v>598</v>
+      </c>
+      <c r="I55" t="s">
+        <v>598</v>
+      </c>
+      <c r="J55" t="s">
+        <v>591</v>
+      </c>
+      <c r="K55" t="s">
+        <v>595</v>
+      </c>
+      <c r="L55" t="s">
+        <v>595</v>
+      </c>
+      <c r="M55" t="s">
+        <v>592</v>
+      </c>
+      <c r="N55" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3919,8 +4810,35 @@
       <c r="E56">
         <v>218</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>598</v>
+      </c>
+      <c r="H56" t="s">
+        <v>598</v>
+      </c>
+      <c r="I56" t="s">
+        <v>598</v>
+      </c>
+      <c r="J56" t="s">
+        <v>591</v>
+      </c>
+      <c r="K56" t="s">
+        <v>595</v>
+      </c>
+      <c r="L56" t="s">
+        <v>598</v>
+      </c>
+      <c r="M56" t="s">
+        <v>617</v>
+      </c>
+      <c r="N56" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3936,8 +4854,35 @@
       <c r="E57">
         <v>218</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>598</v>
+      </c>
+      <c r="H57" t="s">
+        <v>598</v>
+      </c>
+      <c r="I57" t="s">
+        <v>598</v>
+      </c>
+      <c r="J57" t="s">
+        <v>591</v>
+      </c>
+      <c r="K57" t="s">
+        <v>595</v>
+      </c>
+      <c r="L57" t="s">
+        <v>595</v>
+      </c>
+      <c r="M57" t="s">
+        <v>592</v>
+      </c>
+      <c r="N57" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3953,8 +4898,35 @@
       <c r="E58">
         <v>217</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>598</v>
+      </c>
+      <c r="H58" t="s">
+        <v>598</v>
+      </c>
+      <c r="I58" t="s">
+        <v>598</v>
+      </c>
+      <c r="J58" t="s">
+        <v>591</v>
+      </c>
+      <c r="K58" t="s">
+        <v>595</v>
+      </c>
+      <c r="L58" t="s">
+        <v>595</v>
+      </c>
+      <c r="M58" t="s">
+        <v>592</v>
+      </c>
+      <c r="N58" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3970,8 +4942,35 @@
       <c r="E59">
         <v>217</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>598</v>
+      </c>
+      <c r="H59" t="s">
+        <v>598</v>
+      </c>
+      <c r="I59" t="s">
+        <v>598</v>
+      </c>
+      <c r="J59" t="s">
+        <v>591</v>
+      </c>
+      <c r="K59" t="s">
+        <v>595</v>
+      </c>
+      <c r="L59" t="s">
+        <v>595</v>
+      </c>
+      <c r="M59" t="s">
+        <v>592</v>
+      </c>
+      <c r="N59" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3987,8 +4986,35 @@
       <c r="E60">
         <v>217</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>598</v>
+      </c>
+      <c r="H60" t="s">
+        <v>598</v>
+      </c>
+      <c r="I60" t="s">
+        <v>598</v>
+      </c>
+      <c r="J60" t="s">
+        <v>591</v>
+      </c>
+      <c r="K60" t="s">
+        <v>607</v>
+      </c>
+      <c r="L60" t="s">
+        <v>598</v>
+      </c>
+      <c r="M60" t="s">
+        <v>620</v>
+      </c>
+      <c r="N60" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4004,8 +5030,35 @@
       <c r="E61">
         <v>216</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>598</v>
+      </c>
+      <c r="H61" t="s">
+        <v>598</v>
+      </c>
+      <c r="I61" t="s">
+        <v>598</v>
+      </c>
+      <c r="J61" t="s">
+        <v>591</v>
+      </c>
+      <c r="K61" t="s">
+        <v>595</v>
+      </c>
+      <c r="L61" t="s">
+        <v>595</v>
+      </c>
+      <c r="M61" t="s">
+        <v>592</v>
+      </c>
+      <c r="N61" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4021,8 +5074,35 @@
       <c r="E62">
         <v>215</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>598</v>
+      </c>
+      <c r="H62" t="s">
+        <v>598</v>
+      </c>
+      <c r="I62" t="s">
+        <v>598</v>
+      </c>
+      <c r="J62" t="s">
+        <v>591</v>
+      </c>
+      <c r="K62" t="s">
+        <v>595</v>
+      </c>
+      <c r="L62" t="s">
+        <v>595</v>
+      </c>
+      <c r="M62" t="s">
+        <v>592</v>
+      </c>
+      <c r="N62" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4038,8 +5118,35 @@
       <c r="E63">
         <v>215</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>598</v>
+      </c>
+      <c r="H63" t="s">
+        <v>598</v>
+      </c>
+      <c r="I63" t="s">
+        <v>595</v>
+      </c>
+      <c r="J63" t="s">
+        <v>591</v>
+      </c>
+      <c r="K63" t="s">
+        <v>595</v>
+      </c>
+      <c r="L63" t="s">
+        <v>595</v>
+      </c>
+      <c r="M63" t="s">
+        <v>610</v>
+      </c>
+      <c r="N63" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4055,8 +5162,35 @@
       <c r="E64">
         <v>215</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>598</v>
+      </c>
+      <c r="H64" t="s">
+        <v>598</v>
+      </c>
+      <c r="I64" t="s">
+        <v>598</v>
+      </c>
+      <c r="J64" t="s">
+        <v>591</v>
+      </c>
+      <c r="K64" t="s">
+        <v>598</v>
+      </c>
+      <c r="L64" t="s">
+        <v>598</v>
+      </c>
+      <c r="M64" t="s">
+        <v>621</v>
+      </c>
+      <c r="N64" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4072,8 +5206,35 @@
       <c r="E65">
         <v>214</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>598</v>
+      </c>
+      <c r="H65" t="s">
+        <v>598</v>
+      </c>
+      <c r="I65" t="s">
+        <v>598</v>
+      </c>
+      <c r="J65" t="s">
+        <v>591</v>
+      </c>
+      <c r="K65" t="s">
+        <v>595</v>
+      </c>
+      <c r="L65" t="s">
+        <v>595</v>
+      </c>
+      <c r="M65" t="s">
+        <v>592</v>
+      </c>
+      <c r="N65" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4089,8 +5250,35 @@
       <c r="E66">
         <v>213</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>598</v>
+      </c>
+      <c r="H66" t="s">
+        <v>598</v>
+      </c>
+      <c r="I66" t="s">
+        <v>598</v>
+      </c>
+      <c r="J66" t="s">
+        <v>591</v>
+      </c>
+      <c r="K66" t="s">
+        <v>595</v>
+      </c>
+      <c r="L66" t="s">
+        <v>607</v>
+      </c>
+      <c r="M66" t="s">
+        <v>592</v>
+      </c>
+      <c r="N66" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4106,8 +5294,35 @@
       <c r="E67">
         <v>213</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>598</v>
+      </c>
+      <c r="H67" t="s">
+        <v>598</v>
+      </c>
+      <c r="I67" t="s">
+        <v>598</v>
+      </c>
+      <c r="J67" t="s">
+        <v>591</v>
+      </c>
+      <c r="K67" t="s">
+        <v>595</v>
+      </c>
+      <c r="L67" t="s">
+        <v>595</v>
+      </c>
+      <c r="M67" t="s">
+        <v>592</v>
+      </c>
+      <c r="N67" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4123,8 +5338,35 @@
       <c r="E68">
         <v>212</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>598</v>
+      </c>
+      <c r="H68" t="s">
+        <v>598</v>
+      </c>
+      <c r="I68" t="s">
+        <v>595</v>
+      </c>
+      <c r="J68" t="s">
+        <v>591</v>
+      </c>
+      <c r="K68" t="s">
+        <v>595</v>
+      </c>
+      <c r="L68" t="s">
+        <v>595</v>
+      </c>
+      <c r="M68" t="s">
+        <v>610</v>
+      </c>
+      <c r="N68" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4140,8 +5382,35 @@
       <c r="E69">
         <v>212</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>598</v>
+      </c>
+      <c r="H69" t="s">
+        <v>598</v>
+      </c>
+      <c r="I69" t="s">
+        <v>598</v>
+      </c>
+      <c r="J69" t="s">
+        <v>591</v>
+      </c>
+      <c r="K69" t="s">
+        <v>595</v>
+      </c>
+      <c r="L69" t="s">
+        <v>595</v>
+      </c>
+      <c r="M69" t="s">
+        <v>621</v>
+      </c>
+      <c r="N69" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4157,8 +5426,35 @@
       <c r="E70">
         <v>212</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
+        <v>598</v>
+      </c>
+      <c r="H70" t="s">
+        <v>598</v>
+      </c>
+      <c r="I70" t="s">
+        <v>598</v>
+      </c>
+      <c r="J70" t="s">
+        <v>591</v>
+      </c>
+      <c r="K70" t="s">
+        <v>595</v>
+      </c>
+      <c r="L70" t="s">
+        <v>595</v>
+      </c>
+      <c r="M70" t="s">
+        <v>592</v>
+      </c>
+      <c r="N70" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4174,8 +5470,35 @@
       <c r="E71">
         <v>212</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>598</v>
+      </c>
+      <c r="H71" t="s">
+        <v>598</v>
+      </c>
+      <c r="I71" t="s">
+        <v>598</v>
+      </c>
+      <c r="J71" t="s">
+        <v>622</v>
+      </c>
+      <c r="K71" t="s">
+        <v>595</v>
+      </c>
+      <c r="L71" t="s">
+        <v>597</v>
+      </c>
+      <c r="M71" t="s">
+        <v>592</v>
+      </c>
+      <c r="N71" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4191,8 +5514,35 @@
       <c r="E72">
         <v>211</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>598</v>
+      </c>
+      <c r="H72" t="s">
+        <v>598</v>
+      </c>
+      <c r="I72" t="s">
+        <v>595</v>
+      </c>
+      <c r="J72" t="s">
+        <v>591</v>
+      </c>
+      <c r="K72" t="s">
+        <v>598</v>
+      </c>
+      <c r="L72" t="s">
+        <v>598</v>
+      </c>
+      <c r="M72" t="s">
+        <v>610</v>
+      </c>
+      <c r="N72" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4208,8 +5558,35 @@
       <c r="E73">
         <v>211</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>598</v>
+      </c>
+      <c r="H73" t="s">
+        <v>598</v>
+      </c>
+      <c r="I73" t="s">
+        <v>598</v>
+      </c>
+      <c r="J73" t="s">
+        <v>591</v>
+      </c>
+      <c r="K73" t="s">
+        <v>595</v>
+      </c>
+      <c r="L73" t="s">
+        <v>595</v>
+      </c>
+      <c r="M73" t="s">
+        <v>592</v>
+      </c>
+      <c r="N73" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4225,8 +5602,35 @@
       <c r="E74">
         <v>211</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>598</v>
+      </c>
+      <c r="H74" t="s">
+        <v>598</v>
+      </c>
+      <c r="I74" t="s">
+        <v>598</v>
+      </c>
+      <c r="J74" t="s">
+        <v>591</v>
+      </c>
+      <c r="K74" t="s">
+        <v>595</v>
+      </c>
+      <c r="L74" t="s">
+        <v>595</v>
+      </c>
+      <c r="M74" t="s">
+        <v>592</v>
+      </c>
+      <c r="N74" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4242,8 +5646,35 @@
       <c r="E75">
         <v>211</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>598</v>
+      </c>
+      <c r="H75" t="s">
+        <v>598</v>
+      </c>
+      <c r="I75" t="s">
+        <v>598</v>
+      </c>
+      <c r="J75" t="s">
+        <v>591</v>
+      </c>
+      <c r="K75" t="s">
+        <v>595</v>
+      </c>
+      <c r="L75" t="s">
+        <v>597</v>
+      </c>
+      <c r="M75" t="s">
+        <v>623</v>
+      </c>
+      <c r="N75" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4259,8 +5690,35 @@
       <c r="E76">
         <v>210</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
+        <v>598</v>
+      </c>
+      <c r="H76" t="s">
+        <v>598</v>
+      </c>
+      <c r="I76" t="s">
+        <v>598</v>
+      </c>
+      <c r="J76" t="s">
+        <v>605</v>
+      </c>
+      <c r="K76" t="s">
+        <v>595</v>
+      </c>
+      <c r="L76" t="s">
+        <v>595</v>
+      </c>
+      <c r="M76" t="s">
+        <v>592</v>
+      </c>
+      <c r="N76" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4276,8 +5734,35 @@
       <c r="E77">
         <v>210</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
+        <v>598</v>
+      </c>
+      <c r="H77" t="s">
+        <v>595</v>
+      </c>
+      <c r="I77" t="s">
+        <v>598</v>
+      </c>
+      <c r="J77" t="s">
+        <v>624</v>
+      </c>
+      <c r="K77" t="s">
+        <v>607</v>
+      </c>
+      <c r="L77" t="s">
+        <v>597</v>
+      </c>
+      <c r="M77" t="s">
+        <v>623</v>
+      </c>
+      <c r="N77" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4293,8 +5778,35 @@
       <c r="E78">
         <v>208</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="s">
+        <v>598</v>
+      </c>
+      <c r="H78" t="s">
+        <v>598</v>
+      </c>
+      <c r="I78" t="s">
+        <v>595</v>
+      </c>
+      <c r="J78" t="s">
+        <v>591</v>
+      </c>
+      <c r="K78" t="s">
+        <v>595</v>
+      </c>
+      <c r="L78" t="s">
+        <v>595</v>
+      </c>
+      <c r="M78" t="s">
+        <v>592</v>
+      </c>
+      <c r="N78" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4310,8 +5822,35 @@
       <c r="E79">
         <v>208</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
+        <v>598</v>
+      </c>
+      <c r="H79" t="s">
+        <v>598</v>
+      </c>
+      <c r="I79" t="s">
+        <v>598</v>
+      </c>
+      <c r="J79" t="s">
+        <v>591</v>
+      </c>
+      <c r="K79" t="s">
+        <v>595</v>
+      </c>
+      <c r="L79" t="s">
+        <v>597</v>
+      </c>
+      <c r="M79" t="s">
+        <v>623</v>
+      </c>
+      <c r="N79" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4327,8 +5866,35 @@
       <c r="E80">
         <v>208</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>598</v>
+      </c>
+      <c r="H80" t="s">
+        <v>598</v>
+      </c>
+      <c r="I80" t="s">
+        <v>598</v>
+      </c>
+      <c r="J80" t="s">
+        <v>591</v>
+      </c>
+      <c r="K80" t="s">
+        <v>595</v>
+      </c>
+      <c r="L80" t="s">
+        <v>595</v>
+      </c>
+      <c r="M80" t="s">
+        <v>592</v>
+      </c>
+      <c r="N80" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4344,8 +5910,35 @@
       <c r="E81">
         <v>208</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
+        <v>598</v>
+      </c>
+      <c r="H81" t="s">
+        <v>598</v>
+      </c>
+      <c r="I81" t="s">
+        <v>598</v>
+      </c>
+      <c r="J81" t="s">
+        <v>591</v>
+      </c>
+      <c r="K81" t="s">
+        <v>595</v>
+      </c>
+      <c r="L81" t="s">
+        <v>595</v>
+      </c>
+      <c r="M81" t="s">
+        <v>608</v>
+      </c>
+      <c r="N81" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4361,8 +5954,35 @@
       <c r="E82">
         <v>208</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>598</v>
+      </c>
+      <c r="H82" t="s">
+        <v>598</v>
+      </c>
+      <c r="I82" t="s">
+        <v>595</v>
+      </c>
+      <c r="J82" t="s">
+        <v>591</v>
+      </c>
+      <c r="K82" t="s">
+        <v>595</v>
+      </c>
+      <c r="L82" t="s">
+        <v>595</v>
+      </c>
+      <c r="M82" t="s">
+        <v>592</v>
+      </c>
+      <c r="N82" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4378,8 +5998,35 @@
       <c r="E83">
         <v>207</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>598</v>
+      </c>
+      <c r="H83" t="s">
+        <v>598</v>
+      </c>
+      <c r="I83" t="s">
+        <v>598</v>
+      </c>
+      <c r="J83" t="s">
+        <v>591</v>
+      </c>
+      <c r="K83" t="s">
+        <v>595</v>
+      </c>
+      <c r="L83" t="s">
+        <v>595</v>
+      </c>
+      <c r="M83" t="s">
+        <v>625</v>
+      </c>
+      <c r="N83" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4395,8 +6042,35 @@
       <c r="E84">
         <v>207</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>598</v>
+      </c>
+      <c r="H84" t="s">
+        <v>598</v>
+      </c>
+      <c r="I84" t="s">
+        <v>595</v>
+      </c>
+      <c r="J84" t="s">
+        <v>591</v>
+      </c>
+      <c r="K84" t="s">
+        <v>595</v>
+      </c>
+      <c r="L84" t="s">
+        <v>595</v>
+      </c>
+      <c r="M84" t="s">
+        <v>592</v>
+      </c>
+      <c r="N84" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="64" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4412,8 +6086,35 @@
       <c r="E85">
         <v>207</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="s">
+        <v>598</v>
+      </c>
+      <c r="H85" t="s">
+        <v>598</v>
+      </c>
+      <c r="I85" t="s">
+        <v>595</v>
+      </c>
+      <c r="J85" t="s">
+        <v>591</v>
+      </c>
+      <c r="K85" t="s">
+        <v>598</v>
+      </c>
+      <c r="L85" t="s">
+        <v>598</v>
+      </c>
+      <c r="M85" t="s">
+        <v>626</v>
+      </c>
+      <c r="N85" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4429,8 +6130,35 @@
       <c r="E86">
         <v>207</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>598</v>
+      </c>
+      <c r="H86" t="s">
+        <v>598</v>
+      </c>
+      <c r="I86" t="s">
+        <v>595</v>
+      </c>
+      <c r="J86" t="s">
+        <v>591</v>
+      </c>
+      <c r="K86" t="s">
+        <v>595</v>
+      </c>
+      <c r="L86" t="s">
+        <v>595</v>
+      </c>
+      <c r="M86" t="s">
+        <v>592</v>
+      </c>
+      <c r="N86" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4446,8 +6174,35 @@
       <c r="E87">
         <v>207</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>598</v>
+      </c>
+      <c r="H87" t="s">
+        <v>598</v>
+      </c>
+      <c r="I87" t="s">
+        <v>595</v>
+      </c>
+      <c r="J87" t="s">
+        <v>591</v>
+      </c>
+      <c r="K87" t="s">
+        <v>595</v>
+      </c>
+      <c r="L87" t="s">
+        <v>595</v>
+      </c>
+      <c r="M87" t="s">
+        <v>592</v>
+      </c>
+      <c r="N87" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4463,8 +6218,35 @@
       <c r="E88">
         <v>206</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="s">
+        <v>598</v>
+      </c>
+      <c r="H88" t="s">
+        <v>598</v>
+      </c>
+      <c r="I88" t="s">
+        <v>595</v>
+      </c>
+      <c r="J88" t="s">
+        <v>591</v>
+      </c>
+      <c r="K88" t="s">
+        <v>607</v>
+      </c>
+      <c r="L88" t="s">
+        <v>595</v>
+      </c>
+      <c r="M88" t="s">
+        <v>592</v>
+      </c>
+      <c r="N88" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4480,8 +6262,35 @@
       <c r="E89">
         <v>206</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" t="s">
+        <v>598</v>
+      </c>
+      <c r="H89" t="s">
+        <v>598</v>
+      </c>
+      <c r="I89" t="s">
+        <v>598</v>
+      </c>
+      <c r="J89" t="s">
+        <v>591</v>
+      </c>
+      <c r="K89" t="s">
+        <v>595</v>
+      </c>
+      <c r="L89" t="s">
+        <v>597</v>
+      </c>
+      <c r="M89" t="s">
+        <v>627</v>
+      </c>
+      <c r="N89" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4497,8 +6306,35 @@
       <c r="E90">
         <v>206</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" t="s">
+        <v>598</v>
+      </c>
+      <c r="H90" t="s">
+        <v>598</v>
+      </c>
+      <c r="I90" t="s">
+        <v>598</v>
+      </c>
+      <c r="J90" t="s">
+        <v>591</v>
+      </c>
+      <c r="K90" t="s">
+        <v>607</v>
+      </c>
+      <c r="L90" t="s">
+        <v>595</v>
+      </c>
+      <c r="M90" t="s">
+        <v>592</v>
+      </c>
+      <c r="N90" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="48" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4514,8 +6350,35 @@
       <c r="E91">
         <v>205</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="s">
+        <v>598</v>
+      </c>
+      <c r="H91" t="s">
+        <v>598</v>
+      </c>
+      <c r="I91" t="s">
+        <v>598</v>
+      </c>
+      <c r="J91" t="s">
+        <v>591</v>
+      </c>
+      <c r="K91" t="s">
+        <v>598</v>
+      </c>
+      <c r="L91" t="s">
+        <v>607</v>
+      </c>
+      <c r="M91" t="s">
+        <v>628</v>
+      </c>
+      <c r="N91" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4531,25 +6394,82 @@
       <c r="E92">
         <v>205</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="s">
+        <v>598</v>
+      </c>
+      <c r="H92" t="s">
+        <v>598</v>
+      </c>
+      <c r="I92" t="s">
+        <v>598</v>
+      </c>
+      <c r="J92" t="s">
+        <v>591</v>
+      </c>
+      <c r="K92" t="s">
+        <v>607</v>
+      </c>
+      <c r="L92" t="s">
+        <v>595</v>
+      </c>
+      <c r="M92" t="s">
+        <v>592</v>
+      </c>
+      <c r="N92" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="A93" s="6">
         <v>91</v>
       </c>
-      <c r="B93" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B93" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="7">
         <v>204</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F93" s="7">
+        <v>1</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="L93" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="M93" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="N93" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="O93" s="7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4565,8 +6485,35 @@
       <c r="E94">
         <v>204</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="s">
+        <v>598</v>
+      </c>
+      <c r="H94" t="s">
+        <v>598</v>
+      </c>
+      <c r="I94" t="s">
+        <v>598</v>
+      </c>
+      <c r="J94" t="s">
+        <v>591</v>
+      </c>
+      <c r="K94" t="s">
+        <v>595</v>
+      </c>
+      <c r="L94" t="s">
+        <v>595</v>
+      </c>
+      <c r="M94" t="s">
+        <v>621</v>
+      </c>
+      <c r="N94" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4582,8 +6529,35 @@
       <c r="E95">
         <v>204</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95" t="s">
+        <v>598</v>
+      </c>
+      <c r="H95" t="s">
+        <v>598</v>
+      </c>
+      <c r="I95" t="s">
+        <v>595</v>
+      </c>
+      <c r="J95" t="s">
+        <v>591</v>
+      </c>
+      <c r="K95" t="s">
+        <v>595</v>
+      </c>
+      <c r="L95" t="s">
+        <v>595</v>
+      </c>
+      <c r="M95" t="s">
+        <v>592</v>
+      </c>
+      <c r="N95" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4599,8 +6573,35 @@
       <c r="E96">
         <v>204</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96" t="s">
+        <v>598</v>
+      </c>
+      <c r="H96" t="s">
+        <v>598</v>
+      </c>
+      <c r="I96" t="s">
+        <v>595</v>
+      </c>
+      <c r="J96" t="s">
+        <v>591</v>
+      </c>
+      <c r="K96" t="s">
+        <v>595</v>
+      </c>
+      <c r="L96" t="s">
+        <v>595</v>
+      </c>
+      <c r="M96" t="s">
+        <v>592</v>
+      </c>
+      <c r="N96" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4616,8 +6617,35 @@
       <c r="E97">
         <v>203</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97" t="s">
+        <v>598</v>
+      </c>
+      <c r="H97" t="s">
+        <v>598</v>
+      </c>
+      <c r="I97" t="s">
+        <v>595</v>
+      </c>
+      <c r="J97" t="s">
+        <v>591</v>
+      </c>
+      <c r="K97" t="s">
+        <v>595</v>
+      </c>
+      <c r="L97" t="s">
+        <v>607</v>
+      </c>
+      <c r="M97" t="s">
+        <v>592</v>
+      </c>
+      <c r="N97" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4633,8 +6661,38 @@
       <c r="E98">
         <v>203</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" t="s">
+        <v>598</v>
+      </c>
+      <c r="H98" t="s">
+        <v>598</v>
+      </c>
+      <c r="I98" t="s">
+        <v>595</v>
+      </c>
+      <c r="J98" t="s">
+        <v>591</v>
+      </c>
+      <c r="K98" t="s">
+        <v>607</v>
+      </c>
+      <c r="L98" t="s">
+        <v>607</v>
+      </c>
+      <c r="M98" t="s">
+        <v>619</v>
+      </c>
+      <c r="N98" t="s">
+        <v>595</v>
+      </c>
+      <c r="O98" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4650,8 +6708,35 @@
       <c r="E99">
         <v>203</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>598</v>
+      </c>
+      <c r="H99" t="s">
+        <v>598</v>
+      </c>
+      <c r="I99" t="s">
+        <v>595</v>
+      </c>
+      <c r="J99" t="s">
+        <v>591</v>
+      </c>
+      <c r="K99" t="s">
+        <v>595</v>
+      </c>
+      <c r="L99" t="s">
+        <v>595</v>
+      </c>
+      <c r="M99" t="s">
+        <v>592</v>
+      </c>
+      <c r="N99" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4667,8 +6752,38 @@
       <c r="E100">
         <v>202</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" t="s">
+        <v>598</v>
+      </c>
+      <c r="H100" t="s">
+        <v>598</v>
+      </c>
+      <c r="I100" t="s">
+        <v>598</v>
+      </c>
+      <c r="J100" t="s">
+        <v>605</v>
+      </c>
+      <c r="K100" t="s">
+        <v>607</v>
+      </c>
+      <c r="L100" t="s">
+        <v>597</v>
+      </c>
+      <c r="M100" t="s">
+        <v>617</v>
+      </c>
+      <c r="N100" t="s">
+        <v>595</v>
+      </c>
+      <c r="O100" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4684,8 +6799,35 @@
       <c r="E101">
         <v>202</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101" t="s">
+        <v>598</v>
+      </c>
+      <c r="H101" t="s">
+        <v>598</v>
+      </c>
+      <c r="I101" t="s">
+        <v>595</v>
+      </c>
+      <c r="J101" t="s">
+        <v>591</v>
+      </c>
+      <c r="K101" t="s">
+        <v>595</v>
+      </c>
+      <c r="L101" t="s">
+        <v>595</v>
+      </c>
+      <c r="M101" t="s">
+        <v>610</v>
+      </c>
+      <c r="N101" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4701,8 +6843,35 @@
       <c r="E102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102" t="s">
+        <v>598</v>
+      </c>
+      <c r="H102" t="s">
+        <v>595</v>
+      </c>
+      <c r="I102" t="s">
+        <v>598</v>
+      </c>
+      <c r="J102" t="s">
+        <v>591</v>
+      </c>
+      <c r="K102" t="s">
+        <v>595</v>
+      </c>
+      <c r="L102" t="s">
+        <v>607</v>
+      </c>
+      <c r="M102" t="s">
+        <v>633</v>
+      </c>
+      <c r="N102" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4718,8 +6887,35 @@
       <c r="E103">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103" t="s">
+        <v>598</v>
+      </c>
+      <c r="H103" t="s">
+        <v>598</v>
+      </c>
+      <c r="I103" t="s">
+        <v>598</v>
+      </c>
+      <c r="J103" t="s">
+        <v>591</v>
+      </c>
+      <c r="K103" t="s">
+        <v>595</v>
+      </c>
+      <c r="L103" t="s">
+        <v>595</v>
+      </c>
+      <c r="M103" t="s">
+        <v>592</v>
+      </c>
+      <c r="N103" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4735,8 +6931,35 @@
       <c r="E104">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" t="s">
+        <v>598</v>
+      </c>
+      <c r="H104" t="s">
+        <v>598</v>
+      </c>
+      <c r="I104" t="s">
+        <v>598</v>
+      </c>
+      <c r="J104" t="s">
+        <v>591</v>
+      </c>
+      <c r="K104" t="s">
+        <v>595</v>
+      </c>
+      <c r="L104" t="s">
+        <v>607</v>
+      </c>
+      <c r="M104" t="s">
+        <v>592</v>
+      </c>
+      <c r="N104" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4752,25 +6975,82 @@
       <c r="E105">
         <v>6</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" t="s">
+        <v>598</v>
+      </c>
+      <c r="H105" t="s">
+        <v>598</v>
+      </c>
+      <c r="I105" t="s">
+        <v>595</v>
+      </c>
+      <c r="J105" t="s">
+        <v>591</v>
+      </c>
+      <c r="K105" t="s">
+        <v>595</v>
+      </c>
+      <c r="L105" t="s">
+        <v>595</v>
+      </c>
+      <c r="M105" t="s">
+        <v>592</v>
+      </c>
+      <c r="N105" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" s="6">
         <v>104</v>
       </c>
-      <c r="B106" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B106" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F106" s="7">
+        <v>1</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="J106" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="K106" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="L106" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="M106" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="N106" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="O106" s="7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4786,8 +7066,38 @@
       <c r="E107">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107" t="s">
+        <v>598</v>
+      </c>
+      <c r="H107" t="s">
+        <v>598</v>
+      </c>
+      <c r="I107" t="s">
+        <v>598</v>
+      </c>
+      <c r="J107" t="s">
+        <v>591</v>
+      </c>
+      <c r="K107" t="s">
+        <v>598</v>
+      </c>
+      <c r="L107" t="s">
+        <v>598</v>
+      </c>
+      <c r="M107" t="s">
+        <v>636</v>
+      </c>
+      <c r="N107" t="s">
+        <v>595</v>
+      </c>
+      <c r="O107" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4803,8 +7113,38 @@
       <c r="E108">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108" t="s">
+        <v>598</v>
+      </c>
+      <c r="H108" t="s">
+        <v>598</v>
+      </c>
+      <c r="I108" t="s">
+        <v>598</v>
+      </c>
+      <c r="J108" t="s">
+        <v>591</v>
+      </c>
+      <c r="K108" t="s">
+        <v>598</v>
+      </c>
+      <c r="L108" t="s">
+        <v>598</v>
+      </c>
+      <c r="M108" t="s">
+        <v>636</v>
+      </c>
+      <c r="N108" t="s">
+        <v>595</v>
+      </c>
+      <c r="O108" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4820,8 +7160,35 @@
       <c r="E109">
         <v>9</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109" t="s">
+        <v>598</v>
+      </c>
+      <c r="H109" t="s">
+        <v>598</v>
+      </c>
+      <c r="I109" t="s">
+        <v>598</v>
+      </c>
+      <c r="J109" t="s">
+        <v>591</v>
+      </c>
+      <c r="K109" t="s">
+        <v>595</v>
+      </c>
+      <c r="L109" t="s">
+        <v>595</v>
+      </c>
+      <c r="M109" t="s">
+        <v>592</v>
+      </c>
+      <c r="N109" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4837,8 +7204,35 @@
       <c r="E110">
         <v>9</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110" t="s">
+        <v>598</v>
+      </c>
+      <c r="H110" t="s">
+        <v>598</v>
+      </c>
+      <c r="I110" t="s">
+        <v>598</v>
+      </c>
+      <c r="J110" t="s">
+        <v>591</v>
+      </c>
+      <c r="K110" t="s">
+        <v>595</v>
+      </c>
+      <c r="L110" t="s">
+        <v>595</v>
+      </c>
+      <c r="M110" t="s">
+        <v>592</v>
+      </c>
+      <c r="N110" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4854,8 +7248,35 @@
       <c r="E111">
         <v>9</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111" t="s">
+        <v>598</v>
+      </c>
+      <c r="H111" t="s">
+        <v>598</v>
+      </c>
+      <c r="I111" t="s">
+        <v>598</v>
+      </c>
+      <c r="J111" t="s">
+        <v>591</v>
+      </c>
+      <c r="K111" t="s">
+        <v>595</v>
+      </c>
+      <c r="L111" t="s">
+        <v>595</v>
+      </c>
+      <c r="M111" t="s">
+        <v>592</v>
+      </c>
+      <c r="N111" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4871,8 +7292,35 @@
       <c r="E112">
         <v>9</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112" t="s">
+        <v>598</v>
+      </c>
+      <c r="H112" t="s">
+        <v>598</v>
+      </c>
+      <c r="I112" t="s">
+        <v>598</v>
+      </c>
+      <c r="J112" t="s">
+        <v>591</v>
+      </c>
+      <c r="K112" t="s">
+        <v>595</v>
+      </c>
+      <c r="L112" t="s">
+        <v>595</v>
+      </c>
+      <c r="M112" t="s">
+        <v>592</v>
+      </c>
+      <c r="N112" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -4888,8 +7336,35 @@
       <c r="E113">
         <v>9</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113" t="s">
+        <v>598</v>
+      </c>
+      <c r="H113" t="s">
+        <v>598</v>
+      </c>
+      <c r="I113" t="s">
+        <v>598</v>
+      </c>
+      <c r="J113" t="s">
+        <v>591</v>
+      </c>
+      <c r="K113" t="s">
+        <v>595</v>
+      </c>
+      <c r="L113" t="s">
+        <v>595</v>
+      </c>
+      <c r="M113" t="s">
+        <v>592</v>
+      </c>
+      <c r="N113" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -4905,8 +7380,35 @@
       <c r="E114">
         <v>10</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114" t="s">
+        <v>598</v>
+      </c>
+      <c r="H114" t="s">
+        <v>598</v>
+      </c>
+      <c r="I114" t="s">
+        <v>598</v>
+      </c>
+      <c r="J114" t="s">
+        <v>591</v>
+      </c>
+      <c r="K114" t="s">
+        <v>595</v>
+      </c>
+      <c r="L114" t="s">
+        <v>595</v>
+      </c>
+      <c r="M114" t="s">
+        <v>592</v>
+      </c>
+      <c r="N114" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -4922,8 +7424,35 @@
       <c r="E115">
         <v>10</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115" t="s">
+        <v>598</v>
+      </c>
+      <c r="H115" t="s">
+        <v>598</v>
+      </c>
+      <c r="I115" t="s">
+        <v>598</v>
+      </c>
+      <c r="J115" t="s">
+        <v>591</v>
+      </c>
+      <c r="K115" t="s">
+        <v>595</v>
+      </c>
+      <c r="L115" t="s">
+        <v>595</v>
+      </c>
+      <c r="M115" t="s">
+        <v>592</v>
+      </c>
+      <c r="N115" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -4939,8 +7468,35 @@
       <c r="E116">
         <v>10</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116" t="s">
+        <v>598</v>
+      </c>
+      <c r="H116" t="s">
+        <v>598</v>
+      </c>
+      <c r="I116" t="s">
+        <v>598</v>
+      </c>
+      <c r="J116" t="s">
+        <v>591</v>
+      </c>
+      <c r="K116" t="s">
+        <v>595</v>
+      </c>
+      <c r="L116" t="s">
+        <v>595</v>
+      </c>
+      <c r="M116" t="s">
+        <v>592</v>
+      </c>
+      <c r="N116" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -4956,8 +7512,38 @@
       <c r="E117">
         <v>10</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117" t="s">
+        <v>598</v>
+      </c>
+      <c r="H117" t="s">
+        <v>598</v>
+      </c>
+      <c r="I117" t="s">
+        <v>598</v>
+      </c>
+      <c r="J117" t="s">
+        <v>591</v>
+      </c>
+      <c r="K117" t="s">
+        <v>598</v>
+      </c>
+      <c r="L117" t="s">
+        <v>598</v>
+      </c>
+      <c r="M117" t="s">
+        <v>637</v>
+      </c>
+      <c r="N117" t="s">
+        <v>595</v>
+      </c>
+      <c r="O117" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -4973,8 +7559,38 @@
       <c r="E118">
         <v>10</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118" t="s">
+        <v>598</v>
+      </c>
+      <c r="H118" t="s">
+        <v>598</v>
+      </c>
+      <c r="I118" t="s">
+        <v>598</v>
+      </c>
+      <c r="J118" t="s">
+        <v>591</v>
+      </c>
+      <c r="K118" t="s">
+        <v>595</v>
+      </c>
+      <c r="L118" t="s">
+        <v>607</v>
+      </c>
+      <c r="M118" t="s">
+        <v>592</v>
+      </c>
+      <c r="N118" t="s">
+        <v>595</v>
+      </c>
+      <c r="O118" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -4990,8 +7606,35 @@
       <c r="E119">
         <v>10</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119" t="s">
+        <v>595</v>
+      </c>
+      <c r="H119" t="s">
+        <v>598</v>
+      </c>
+      <c r="I119" t="s">
+        <v>598</v>
+      </c>
+      <c r="J119" t="s">
+        <v>591</v>
+      </c>
+      <c r="K119" t="s">
+        <v>595</v>
+      </c>
+      <c r="L119" t="s">
+        <v>595</v>
+      </c>
+      <c r="M119" t="s">
+        <v>592</v>
+      </c>
+      <c r="N119" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5007,8 +7650,38 @@
       <c r="E120">
         <v>11</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="G120" t="s">
+        <v>595</v>
+      </c>
+      <c r="H120" t="s">
+        <v>598</v>
+      </c>
+      <c r="I120" t="s">
+        <v>598</v>
+      </c>
+      <c r="J120" t="s">
+        <v>640</v>
+      </c>
+      <c r="K120" t="s">
+        <v>595</v>
+      </c>
+      <c r="L120" t="s">
+        <v>595</v>
+      </c>
+      <c r="M120" t="s">
+        <v>592</v>
+      </c>
+      <c r="N120" t="s">
+        <v>595</v>
+      </c>
+      <c r="O120" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -5024,8 +7697,35 @@
       <c r="E121">
         <v>11</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121" t="s">
+        <v>598</v>
+      </c>
+      <c r="H121" t="s">
+        <v>598</v>
+      </c>
+      <c r="I121" t="s">
+        <v>598</v>
+      </c>
+      <c r="J121" t="s">
+        <v>591</v>
+      </c>
+      <c r="K121" t="s">
+        <v>595</v>
+      </c>
+      <c r="L121" t="s">
+        <v>595</v>
+      </c>
+      <c r="M121" t="s">
+        <v>592</v>
+      </c>
+      <c r="N121" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -5041,8 +7741,35 @@
       <c r="E122">
         <v>12</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122" t="s">
+        <v>598</v>
+      </c>
+      <c r="H122" t="s">
+        <v>598</v>
+      </c>
+      <c r="I122" t="s">
+        <v>598</v>
+      </c>
+      <c r="J122" t="s">
+        <v>605</v>
+      </c>
+      <c r="K122" t="s">
+        <v>595</v>
+      </c>
+      <c r="L122" t="s">
+        <v>595</v>
+      </c>
+      <c r="M122" t="s">
+        <v>592</v>
+      </c>
+      <c r="N122" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -5058,8 +7785,35 @@
       <c r="E123">
         <v>12</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123" t="s">
+        <v>598</v>
+      </c>
+      <c r="H123" t="s">
+        <v>598</v>
+      </c>
+      <c r="I123" t="s">
+        <v>598</v>
+      </c>
+      <c r="J123" t="s">
+        <v>591</v>
+      </c>
+      <c r="K123" t="s">
+        <v>595</v>
+      </c>
+      <c r="L123" t="s">
+        <v>595</v>
+      </c>
+      <c r="M123" t="s">
+        <v>592</v>
+      </c>
+      <c r="N123" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -5075,8 +7829,35 @@
       <c r="E124">
         <v>12</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124" t="s">
+        <v>598</v>
+      </c>
+      <c r="H124" t="s">
+        <v>598</v>
+      </c>
+      <c r="I124" t="s">
+        <v>598</v>
+      </c>
+      <c r="J124" t="s">
+        <v>591</v>
+      </c>
+      <c r="K124" t="s">
+        <v>595</v>
+      </c>
+      <c r="L124" t="s">
+        <v>595</v>
+      </c>
+      <c r="M124" t="s">
+        <v>608</v>
+      </c>
+      <c r="N124" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -5092,8 +7873,38 @@
       <c r="E125">
         <v>12</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125" t="s">
+        <v>595</v>
+      </c>
+      <c r="H125" t="s">
+        <v>598</v>
+      </c>
+      <c r="I125" t="s">
+        <v>598</v>
+      </c>
+      <c r="J125" t="s">
+        <v>591</v>
+      </c>
+      <c r="K125" t="s">
+        <v>607</v>
+      </c>
+      <c r="L125" t="s">
+        <v>607</v>
+      </c>
+      <c r="M125" t="s">
+        <v>619</v>
+      </c>
+      <c r="N125" t="s">
+        <v>595</v>
+      </c>
+      <c r="O125" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -5109,8 +7920,35 @@
       <c r="E126">
         <v>12</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126" t="s">
+        <v>598</v>
+      </c>
+      <c r="H126" t="s">
+        <v>598</v>
+      </c>
+      <c r="I126" t="s">
+        <v>598</v>
+      </c>
+      <c r="J126" t="s">
+        <v>591</v>
+      </c>
+      <c r="K126" t="s">
+        <v>595</v>
+      </c>
+      <c r="L126" t="s">
+        <v>595</v>
+      </c>
+      <c r="M126" t="s">
+        <v>592</v>
+      </c>
+      <c r="N126" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -5126,8 +7964,35 @@
       <c r="E127">
         <v>12</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127" t="s">
+        <v>598</v>
+      </c>
+      <c r="H127" t="s">
+        <v>598</v>
+      </c>
+      <c r="I127" t="s">
+        <v>598</v>
+      </c>
+      <c r="J127" t="s">
+        <v>622</v>
+      </c>
+      <c r="K127" t="s">
+        <v>595</v>
+      </c>
+      <c r="L127" t="s">
+        <v>595</v>
+      </c>
+      <c r="M127" t="s">
+        <v>592</v>
+      </c>
+      <c r="N127" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -5143,8 +8008,35 @@
       <c r="E128">
         <v>12</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128" t="s">
+        <v>598</v>
+      </c>
+      <c r="H128" t="s">
+        <v>598</v>
+      </c>
+      <c r="I128" t="s">
+        <v>598</v>
+      </c>
+      <c r="J128" t="s">
+        <v>591</v>
+      </c>
+      <c r="K128" t="s">
+        <v>595</v>
+      </c>
+      <c r="L128" t="s">
+        <v>607</v>
+      </c>
+      <c r="M128" t="s">
+        <v>592</v>
+      </c>
+      <c r="N128" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -5160,8 +8052,35 @@
       <c r="E129">
         <v>12</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129" t="s">
+        <v>598</v>
+      </c>
+      <c r="H129" t="s">
+        <v>598</v>
+      </c>
+      <c r="I129" t="s">
+        <v>598</v>
+      </c>
+      <c r="J129" t="s">
+        <v>591</v>
+      </c>
+      <c r="K129" t="s">
+        <v>595</v>
+      </c>
+      <c r="L129" t="s">
+        <v>607</v>
+      </c>
+      <c r="M129" t="s">
+        <v>592</v>
+      </c>
+      <c r="N129" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -5177,8 +8096,35 @@
       <c r="E130">
         <v>12</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130" t="s">
+        <v>598</v>
+      </c>
+      <c r="H130" t="s">
+        <v>598</v>
+      </c>
+      <c r="I130" t="s">
+        <v>598</v>
+      </c>
+      <c r="J130" t="s">
+        <v>591</v>
+      </c>
+      <c r="K130" t="s">
+        <v>595</v>
+      </c>
+      <c r="L130" t="s">
+        <v>607</v>
+      </c>
+      <c r="M130" t="s">
+        <v>592</v>
+      </c>
+      <c r="N130" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -5194,8 +8140,35 @@
       <c r="E131">
         <v>13</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131" t="s">
+        <v>595</v>
+      </c>
+      <c r="H131" t="s">
+        <v>598</v>
+      </c>
+      <c r="I131" t="s">
+        <v>598</v>
+      </c>
+      <c r="J131" t="s">
+        <v>605</v>
+      </c>
+      <c r="K131" t="s">
+        <v>595</v>
+      </c>
+      <c r="L131" t="s">
+        <v>595</v>
+      </c>
+      <c r="M131" t="s">
+        <v>592</v>
+      </c>
+      <c r="N131" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -5211,8 +8184,35 @@
       <c r="E132">
         <v>13</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132" t="s">
+        <v>598</v>
+      </c>
+      <c r="H132" t="s">
+        <v>598</v>
+      </c>
+      <c r="I132" t="s">
+        <v>598</v>
+      </c>
+      <c r="J132" t="s">
+        <v>591</v>
+      </c>
+      <c r="K132" t="s">
+        <v>595</v>
+      </c>
+      <c r="L132" t="s">
+        <v>595</v>
+      </c>
+      <c r="M132" t="s">
+        <v>592</v>
+      </c>
+      <c r="N132" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -5228,8 +8228,35 @@
       <c r="E133">
         <v>13</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133" t="s">
+        <v>595</v>
+      </c>
+      <c r="H133" t="s">
+        <v>598</v>
+      </c>
+      <c r="I133" t="s">
+        <v>598</v>
+      </c>
+      <c r="J133" t="s">
+        <v>591</v>
+      </c>
+      <c r="K133" t="s">
+        <v>595</v>
+      </c>
+      <c r="L133" t="s">
+        <v>595</v>
+      </c>
+      <c r="M133" t="s">
+        <v>592</v>
+      </c>
+      <c r="N133" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5245,8 +8272,38 @@
       <c r="E134">
         <v>13</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134" t="s">
+        <v>598</v>
+      </c>
+      <c r="H134" t="s">
+        <v>598</v>
+      </c>
+      <c r="I134" t="s">
+        <v>598</v>
+      </c>
+      <c r="J134" t="s">
+        <v>591</v>
+      </c>
+      <c r="K134" t="s">
+        <v>598</v>
+      </c>
+      <c r="L134" t="s">
+        <v>598</v>
+      </c>
+      <c r="M134" t="s">
+        <v>637</v>
+      </c>
+      <c r="N134" t="s">
+        <v>595</v>
+      </c>
+      <c r="O134" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -5262,8 +8319,38 @@
       <c r="E135">
         <v>14</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135" t="s">
+        <v>595</v>
+      </c>
+      <c r="H135" t="s">
+        <v>598</v>
+      </c>
+      <c r="I135" t="s">
+        <v>598</v>
+      </c>
+      <c r="J135" t="s">
+        <v>644</v>
+      </c>
+      <c r="K135" t="s">
+        <v>598</v>
+      </c>
+      <c r="L135" t="s">
+        <v>598</v>
+      </c>
+      <c r="M135" t="s">
+        <v>645</v>
+      </c>
+      <c r="N135" t="s">
+        <v>595</v>
+      </c>
+      <c r="O135" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5279,8 +8366,38 @@
       <c r="E136">
         <v>14</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F136">
+        <v>2</v>
+      </c>
+      <c r="G136" t="s">
+        <v>598</v>
+      </c>
+      <c r="H136" t="s">
+        <v>595</v>
+      </c>
+      <c r="I136" t="s">
+        <v>598</v>
+      </c>
+      <c r="J136" t="s">
+        <v>591</v>
+      </c>
+      <c r="K136" t="s">
+        <v>595</v>
+      </c>
+      <c r="L136" t="s">
+        <v>607</v>
+      </c>
+      <c r="M136" t="s">
+        <v>592</v>
+      </c>
+      <c r="N136" t="s">
+        <v>595</v>
+      </c>
+      <c r="O136" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -5296,8 +8413,35 @@
       <c r="E137">
         <v>14</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137" t="s">
+        <v>598</v>
+      </c>
+      <c r="H137" t="s">
+        <v>598</v>
+      </c>
+      <c r="I137" t="s">
+        <v>598</v>
+      </c>
+      <c r="J137" t="s">
+        <v>591</v>
+      </c>
+      <c r="K137" t="s">
+        <v>595</v>
+      </c>
+      <c r="L137" t="s">
+        <v>607</v>
+      </c>
+      <c r="M137" t="s">
+        <v>592</v>
+      </c>
+      <c r="N137" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -5313,8 +8457,35 @@
       <c r="E138">
         <v>14</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138" t="s">
+        <v>598</v>
+      </c>
+      <c r="H138" t="s">
+        <v>598</v>
+      </c>
+      <c r="I138" t="s">
+        <v>598</v>
+      </c>
+      <c r="J138" t="s">
+        <v>591</v>
+      </c>
+      <c r="K138" t="s">
+        <v>595</v>
+      </c>
+      <c r="L138" t="s">
+        <v>595</v>
+      </c>
+      <c r="M138" t="s">
+        <v>592</v>
+      </c>
+      <c r="N138" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -5330,8 +8501,35 @@
       <c r="E139">
         <v>14</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139" t="s">
+        <v>598</v>
+      </c>
+      <c r="H139" t="s">
+        <v>598</v>
+      </c>
+      <c r="I139" t="s">
+        <v>598</v>
+      </c>
+      <c r="J139" t="s">
+        <v>591</v>
+      </c>
+      <c r="K139" t="s">
+        <v>595</v>
+      </c>
+      <c r="L139" t="s">
+        <v>598</v>
+      </c>
+      <c r="M139" t="s">
+        <v>623</v>
+      </c>
+      <c r="N139" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -5347,8 +8545,35 @@
       <c r="E140">
         <v>14</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140" t="s">
+        <v>598</v>
+      </c>
+      <c r="H140" t="s">
+        <v>598</v>
+      </c>
+      <c r="I140" t="s">
+        <v>598</v>
+      </c>
+      <c r="J140" t="s">
+        <v>648</v>
+      </c>
+      <c r="K140" t="s">
+        <v>595</v>
+      </c>
+      <c r="L140" t="s">
+        <v>607</v>
+      </c>
+      <c r="M140" t="s">
+        <v>592</v>
+      </c>
+      <c r="N140" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -5364,8 +8589,38 @@
       <c r="E141">
         <v>14</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141" t="s">
+        <v>595</v>
+      </c>
+      <c r="H141" t="s">
+        <v>598</v>
+      </c>
+      <c r="I141" t="s">
+        <v>598</v>
+      </c>
+      <c r="J141" t="s">
+        <v>591</v>
+      </c>
+      <c r="K141" t="s">
+        <v>595</v>
+      </c>
+      <c r="L141" t="s">
+        <v>607</v>
+      </c>
+      <c r="M141" t="s">
+        <v>592</v>
+      </c>
+      <c r="N141" t="s">
+        <v>595</v>
+      </c>
+      <c r="O141" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -5381,8 +8636,35 @@
       <c r="E142">
         <v>14</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142" t="s">
+        <v>598</v>
+      </c>
+      <c r="H142" t="s">
+        <v>598</v>
+      </c>
+      <c r="I142" t="s">
+        <v>598</v>
+      </c>
+      <c r="J142" t="s">
+        <v>591</v>
+      </c>
+      <c r="K142" t="s">
+        <v>595</v>
+      </c>
+      <c r="L142" t="s">
+        <v>595</v>
+      </c>
+      <c r="M142" t="s">
+        <v>592</v>
+      </c>
+      <c r="N142" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -5398,8 +8680,35 @@
       <c r="E143">
         <v>15</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143" t="s">
+        <v>598</v>
+      </c>
+      <c r="H143" t="s">
+        <v>598</v>
+      </c>
+      <c r="I143" t="s">
+        <v>598</v>
+      </c>
+      <c r="J143" t="s">
+        <v>591</v>
+      </c>
+      <c r="K143" t="s">
+        <v>595</v>
+      </c>
+      <c r="L143" t="s">
+        <v>595</v>
+      </c>
+      <c r="M143" t="s">
+        <v>592</v>
+      </c>
+      <c r="N143" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -5415,8 +8724,35 @@
       <c r="E144">
         <v>15</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144" t="s">
+        <v>598</v>
+      </c>
+      <c r="H144" t="s">
+        <v>598</v>
+      </c>
+      <c r="I144" t="s">
+        <v>598</v>
+      </c>
+      <c r="J144" t="s">
+        <v>591</v>
+      </c>
+      <c r="K144" t="s">
+        <v>595</v>
+      </c>
+      <c r="L144" t="s">
+        <v>598</v>
+      </c>
+      <c r="M144" t="s">
+        <v>623</v>
+      </c>
+      <c r="N144" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -5432,8 +8768,35 @@
       <c r="E145">
         <v>15</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145" t="s">
+        <v>598</v>
+      </c>
+      <c r="H145" t="s">
+        <v>598</v>
+      </c>
+      <c r="I145" t="s">
+        <v>598</v>
+      </c>
+      <c r="J145" t="s">
+        <v>591</v>
+      </c>
+      <c r="K145" t="s">
+        <v>595</v>
+      </c>
+      <c r="L145" t="s">
+        <v>595</v>
+      </c>
+      <c r="M145" t="s">
+        <v>637</v>
+      </c>
+      <c r="N145" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -5449,8 +8812,35 @@
       <c r="E146">
         <v>15</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146" t="s">
+        <v>598</v>
+      </c>
+      <c r="H146" t="s">
+        <v>598</v>
+      </c>
+      <c r="I146" t="s">
+        <v>598</v>
+      </c>
+      <c r="J146" t="s">
+        <v>591</v>
+      </c>
+      <c r="K146" t="s">
+        <v>598</v>
+      </c>
+      <c r="L146" t="s">
+        <v>598</v>
+      </c>
+      <c r="M146" t="s">
+        <v>617</v>
+      </c>
+      <c r="N146" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -5466,8 +8856,35 @@
       <c r="E147">
         <v>15</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147" t="s">
+        <v>598</v>
+      </c>
+      <c r="H147" t="s">
+        <v>598</v>
+      </c>
+      <c r="I147" t="s">
+        <v>598</v>
+      </c>
+      <c r="J147" t="s">
+        <v>591</v>
+      </c>
+      <c r="K147" t="s">
+        <v>595</v>
+      </c>
+      <c r="L147" t="s">
+        <v>595</v>
+      </c>
+      <c r="M147" t="s">
+        <v>592</v>
+      </c>
+      <c r="N147" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -5483,8 +8900,35 @@
       <c r="E148">
         <v>15</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148" t="s">
+        <v>598</v>
+      </c>
+      <c r="H148" t="s">
+        <v>595</v>
+      </c>
+      <c r="I148" t="s">
+        <v>598</v>
+      </c>
+      <c r="J148" t="s">
+        <v>591</v>
+      </c>
+      <c r="K148" t="s">
+        <v>607</v>
+      </c>
+      <c r="L148" t="s">
+        <v>595</v>
+      </c>
+      <c r="M148" t="s">
+        <v>617</v>
+      </c>
+      <c r="N148" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -5500,8 +8944,35 @@
       <c r="E149">
         <v>15</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149" t="s">
+        <v>598</v>
+      </c>
+      <c r="H149" t="s">
+        <v>598</v>
+      </c>
+      <c r="I149" t="s">
+        <v>598</v>
+      </c>
+      <c r="J149" t="s">
+        <v>591</v>
+      </c>
+      <c r="K149" t="s">
+        <v>595</v>
+      </c>
+      <c r="L149" t="s">
+        <v>607</v>
+      </c>
+      <c r="M149" t="s">
+        <v>592</v>
+      </c>
+      <c r="N149" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -5517,8 +8988,35 @@
       <c r="E150">
         <v>16</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150" t="s">
+        <v>598</v>
+      </c>
+      <c r="H150" t="s">
+        <v>598</v>
+      </c>
+      <c r="I150" t="s">
+        <v>598</v>
+      </c>
+      <c r="J150" t="s">
+        <v>591</v>
+      </c>
+      <c r="K150" t="s">
+        <v>595</v>
+      </c>
+      <c r="L150" t="s">
+        <v>595</v>
+      </c>
+      <c r="M150" t="s">
+        <v>592</v>
+      </c>
+      <c r="N150" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -5534,8 +9032,35 @@
       <c r="E151">
         <v>16</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151" t="s">
+        <v>598</v>
+      </c>
+      <c r="H151" t="s">
+        <v>598</v>
+      </c>
+      <c r="I151" t="s">
+        <v>598</v>
+      </c>
+      <c r="J151" t="s">
+        <v>591</v>
+      </c>
+      <c r="K151" t="s">
+        <v>595</v>
+      </c>
+      <c r="L151" t="s">
+        <v>607</v>
+      </c>
+      <c r="M151" t="s">
+        <v>592</v>
+      </c>
+      <c r="N151" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -5551,8 +9076,35 @@
       <c r="E152">
         <v>16</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152" t="s">
+        <v>598</v>
+      </c>
+      <c r="H152" t="s">
+        <v>598</v>
+      </c>
+      <c r="I152" t="s">
+        <v>598</v>
+      </c>
+      <c r="J152" t="s">
+        <v>591</v>
+      </c>
+      <c r="K152" t="s">
+        <v>595</v>
+      </c>
+      <c r="L152" t="s">
+        <v>598</v>
+      </c>
+      <c r="M152" t="s">
+        <v>623</v>
+      </c>
+      <c r="N152" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -5568,8 +9120,35 @@
       <c r="E153">
         <v>16</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153" t="s">
+        <v>598</v>
+      </c>
+      <c r="H153" t="s">
+        <v>598</v>
+      </c>
+      <c r="I153" t="s">
+        <v>598</v>
+      </c>
+      <c r="J153" t="s">
+        <v>591</v>
+      </c>
+      <c r="K153" t="s">
+        <v>595</v>
+      </c>
+      <c r="L153" t="s">
+        <v>607</v>
+      </c>
+      <c r="M153" t="s">
+        <v>592</v>
+      </c>
+      <c r="N153" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -5585,8 +9164,38 @@
       <c r="E154">
         <v>16</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154" t="s">
+        <v>598</v>
+      </c>
+      <c r="H154" t="s">
+        <v>595</v>
+      </c>
+      <c r="I154" t="s">
+        <v>598</v>
+      </c>
+      <c r="J154" t="s">
+        <v>591</v>
+      </c>
+      <c r="K154" t="s">
+        <v>595</v>
+      </c>
+      <c r="L154" t="s">
+        <v>607</v>
+      </c>
+      <c r="M154" t="s">
+        <v>592</v>
+      </c>
+      <c r="N154" t="s">
+        <v>595</v>
+      </c>
+      <c r="O154" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -5602,8 +9211,35 @@
       <c r="E155">
         <v>16</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155" t="s">
+        <v>598</v>
+      </c>
+      <c r="H155" t="s">
+        <v>598</v>
+      </c>
+      <c r="I155" t="s">
+        <v>598</v>
+      </c>
+      <c r="J155" t="s">
+        <v>605</v>
+      </c>
+      <c r="K155" t="s">
+        <v>595</v>
+      </c>
+      <c r="L155" t="s">
+        <v>595</v>
+      </c>
+      <c r="M155" t="s">
+        <v>592</v>
+      </c>
+      <c r="N155" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -5619,8 +9255,35 @@
       <c r="E156">
         <v>16</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156" t="s">
+        <v>598</v>
+      </c>
+      <c r="H156" t="s">
+        <v>598</v>
+      </c>
+      <c r="I156" t="s">
+        <v>598</v>
+      </c>
+      <c r="J156" t="s">
+        <v>591</v>
+      </c>
+      <c r="K156" t="s">
+        <v>595</v>
+      </c>
+      <c r="L156" t="s">
+        <v>607</v>
+      </c>
+      <c r="M156" t="s">
+        <v>592</v>
+      </c>
+      <c r="N156" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -5636,8 +9299,35 @@
       <c r="E157">
         <v>16</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157" t="s">
+        <v>595</v>
+      </c>
+      <c r="H157" t="s">
+        <v>598</v>
+      </c>
+      <c r="I157" t="s">
+        <v>598</v>
+      </c>
+      <c r="J157" t="s">
+        <v>591</v>
+      </c>
+      <c r="K157" t="s">
+        <v>595</v>
+      </c>
+      <c r="L157" t="s">
+        <v>595</v>
+      </c>
+      <c r="M157" t="s">
+        <v>592</v>
+      </c>
+      <c r="N157" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -5653,8 +9343,35 @@
       <c r="E158">
         <v>16</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158" t="s">
+        <v>598</v>
+      </c>
+      <c r="H158" t="s">
+        <v>598</v>
+      </c>
+      <c r="I158" t="s">
+        <v>598</v>
+      </c>
+      <c r="J158" t="s">
+        <v>591</v>
+      </c>
+      <c r="K158" t="s">
+        <v>607</v>
+      </c>
+      <c r="L158" t="s">
+        <v>595</v>
+      </c>
+      <c r="M158" t="s">
+        <v>592</v>
+      </c>
+      <c r="N158" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -5670,8 +9387,35 @@
       <c r="E159">
         <v>16</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159" t="s">
+        <v>598</v>
+      </c>
+      <c r="H159" t="s">
+        <v>598</v>
+      </c>
+      <c r="I159" t="s">
+        <v>598</v>
+      </c>
+      <c r="J159" t="s">
+        <v>591</v>
+      </c>
+      <c r="K159" t="s">
+        <v>595</v>
+      </c>
+      <c r="L159" t="s">
+        <v>595</v>
+      </c>
+      <c r="M159" t="s">
+        <v>592</v>
+      </c>
+      <c r="N159" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -5687,8 +9431,35 @@
       <c r="E160">
         <v>16</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160" t="s">
+        <v>598</v>
+      </c>
+      <c r="H160" t="s">
+        <v>598</v>
+      </c>
+      <c r="I160" t="s">
+        <v>598</v>
+      </c>
+      <c r="J160" t="s">
+        <v>591</v>
+      </c>
+      <c r="K160" t="s">
+        <v>595</v>
+      </c>
+      <c r="L160" t="s">
+        <v>595</v>
+      </c>
+      <c r="M160" t="s">
+        <v>592</v>
+      </c>
+      <c r="N160" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -5704,8 +9475,35 @@
       <c r="E161">
         <v>16</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161" t="s">
+        <v>598</v>
+      </c>
+      <c r="H161" t="s">
+        <v>598</v>
+      </c>
+      <c r="I161" t="s">
+        <v>598</v>
+      </c>
+      <c r="J161" t="s">
+        <v>591</v>
+      </c>
+      <c r="K161" t="s">
+        <v>595</v>
+      </c>
+      <c r="L161" t="s">
+        <v>595</v>
+      </c>
+      <c r="M161" t="s">
+        <v>592</v>
+      </c>
+      <c r="N161" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -5721,8 +9519,35 @@
       <c r="E162">
         <v>16</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162" t="s">
+        <v>598</v>
+      </c>
+      <c r="H162" t="s">
+        <v>598</v>
+      </c>
+      <c r="I162" t="s">
+        <v>598</v>
+      </c>
+      <c r="J162" t="s">
+        <v>651</v>
+      </c>
+      <c r="K162" t="s">
+        <v>595</v>
+      </c>
+      <c r="L162" t="s">
+        <v>595</v>
+      </c>
+      <c r="M162" t="s">
+        <v>592</v>
+      </c>
+      <c r="N162" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -5738,8 +9563,38 @@
       <c r="E163">
         <v>17</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="G163" t="s">
+        <v>598</v>
+      </c>
+      <c r="H163" t="s">
+        <v>598</v>
+      </c>
+      <c r="I163" t="s">
+        <v>598</v>
+      </c>
+      <c r="J163" t="s">
+        <v>591</v>
+      </c>
+      <c r="K163" t="s">
+        <v>595</v>
+      </c>
+      <c r="L163" t="s">
+        <v>595</v>
+      </c>
+      <c r="M163" t="s">
+        <v>592</v>
+      </c>
+      <c r="N163" t="s">
+        <v>595</v>
+      </c>
+      <c r="O163" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -5755,8 +9610,38 @@
       <c r="E164">
         <v>17</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164" t="s">
+        <v>598</v>
+      </c>
+      <c r="H164" t="s">
+        <v>598</v>
+      </c>
+      <c r="I164" t="s">
+        <v>598</v>
+      </c>
+      <c r="J164" t="s">
+        <v>591</v>
+      </c>
+      <c r="K164" t="s">
+        <v>595</v>
+      </c>
+      <c r="L164" t="s">
+        <v>595</v>
+      </c>
+      <c r="M164" t="s">
+        <v>592</v>
+      </c>
+      <c r="N164" t="s">
+        <v>595</v>
+      </c>
+      <c r="O164" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -5772,8 +9657,38 @@
       <c r="E165">
         <v>17</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F165">
+        <v>1</v>
+      </c>
+      <c r="G165" t="s">
+        <v>598</v>
+      </c>
+      <c r="H165" t="s">
+        <v>598</v>
+      </c>
+      <c r="I165" t="s">
+        <v>598</v>
+      </c>
+      <c r="J165" t="s">
+        <v>591</v>
+      </c>
+      <c r="K165" t="s">
+        <v>595</v>
+      </c>
+      <c r="L165" t="s">
+        <v>595</v>
+      </c>
+      <c r="M165" t="s">
+        <v>592</v>
+      </c>
+      <c r="N165" t="s">
+        <v>595</v>
+      </c>
+      <c r="O165" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -5789,8 +9704,38 @@
       <c r="E166">
         <v>17</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166" t="s">
+        <v>598</v>
+      </c>
+      <c r="H166" t="s">
+        <v>598</v>
+      </c>
+      <c r="I166" t="s">
+        <v>598</v>
+      </c>
+      <c r="J166" t="s">
+        <v>591</v>
+      </c>
+      <c r="K166" t="s">
+        <v>595</v>
+      </c>
+      <c r="L166" t="s">
+        <v>595</v>
+      </c>
+      <c r="M166" t="s">
+        <v>592</v>
+      </c>
+      <c r="N166" t="s">
+        <v>595</v>
+      </c>
+      <c r="O166" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -5806,8 +9751,35 @@
       <c r="E167">
         <v>17</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="G167" t="s">
+        <v>598</v>
+      </c>
+      <c r="H167" t="s">
+        <v>598</v>
+      </c>
+      <c r="I167" t="s">
+        <v>598</v>
+      </c>
+      <c r="J167" t="s">
+        <v>591</v>
+      </c>
+      <c r="K167" t="s">
+        <v>595</v>
+      </c>
+      <c r="L167" t="s">
+        <v>598</v>
+      </c>
+      <c r="M167" t="s">
+        <v>623</v>
+      </c>
+      <c r="N167" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -5823,8 +9795,35 @@
       <c r="E168">
         <v>17</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="G168" t="s">
+        <v>598</v>
+      </c>
+      <c r="H168" t="s">
+        <v>598</v>
+      </c>
+      <c r="I168" t="s">
+        <v>598</v>
+      </c>
+      <c r="J168" t="s">
+        <v>591</v>
+      </c>
+      <c r="K168" t="s">
+        <v>595</v>
+      </c>
+      <c r="L168" t="s">
+        <v>598</v>
+      </c>
+      <c r="M168" t="s">
+        <v>623</v>
+      </c>
+      <c r="N168" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -5840,8 +9839,38 @@
       <c r="E169">
         <v>17</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="G169" t="s">
+        <v>598</v>
+      </c>
+      <c r="H169" t="s">
+        <v>598</v>
+      </c>
+      <c r="I169" t="s">
+        <v>598</v>
+      </c>
+      <c r="J169" t="s">
+        <v>591</v>
+      </c>
+      <c r="K169" t="s">
+        <v>595</v>
+      </c>
+      <c r="L169" t="s">
+        <v>595</v>
+      </c>
+      <c r="M169" t="s">
+        <v>592</v>
+      </c>
+      <c r="N169" t="s">
+        <v>595</v>
+      </c>
+      <c r="O169" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -5857,8 +9886,35 @@
       <c r="E170">
         <v>17</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170" t="s">
+        <v>598</v>
+      </c>
+      <c r="H170" t="s">
+        <v>598</v>
+      </c>
+      <c r="I170" t="s">
+        <v>598</v>
+      </c>
+      <c r="J170" t="s">
+        <v>591</v>
+      </c>
+      <c r="K170" t="s">
+        <v>595</v>
+      </c>
+      <c r="L170" t="s">
+        <v>607</v>
+      </c>
+      <c r="M170" t="s">
+        <v>592</v>
+      </c>
+      <c r="N170" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -5874,8 +9930,38 @@
       <c r="E171">
         <v>17</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F171">
+        <v>1</v>
+      </c>
+      <c r="G171" t="s">
+        <v>598</v>
+      </c>
+      <c r="H171" t="s">
+        <v>598</v>
+      </c>
+      <c r="I171" t="s">
+        <v>598</v>
+      </c>
+      <c r="J171" t="s">
+        <v>591</v>
+      </c>
+      <c r="K171" t="s">
+        <v>595</v>
+      </c>
+      <c r="L171" t="s">
+        <v>595</v>
+      </c>
+      <c r="M171" t="s">
+        <v>592</v>
+      </c>
+      <c r="N171" t="s">
+        <v>595</v>
+      </c>
+      <c r="O171" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -5891,8 +9977,35 @@
       <c r="E172">
         <v>17</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172" t="s">
+        <v>595</v>
+      </c>
+      <c r="H172" t="s">
+        <v>598</v>
+      </c>
+      <c r="I172" t="s">
+        <v>598</v>
+      </c>
+      <c r="J172" t="s">
+        <v>640</v>
+      </c>
+      <c r="K172" t="s">
+        <v>595</v>
+      </c>
+      <c r="L172" t="s">
+        <v>595</v>
+      </c>
+      <c r="M172" t="s">
+        <v>592</v>
+      </c>
+      <c r="N172" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -5908,8 +10021,35 @@
       <c r="E173">
         <v>17</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="G173" t="s">
+        <v>598</v>
+      </c>
+      <c r="H173" t="s">
+        <v>598</v>
+      </c>
+      <c r="I173" t="s">
+        <v>598</v>
+      </c>
+      <c r="J173" t="s">
+        <v>591</v>
+      </c>
+      <c r="K173" t="s">
+        <v>595</v>
+      </c>
+      <c r="L173" t="s">
+        <v>598</v>
+      </c>
+      <c r="M173" t="s">
+        <v>623</v>
+      </c>
+      <c r="N173" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -5925,8 +10065,35 @@
       <c r="E174">
         <v>17</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F174">
+        <v>1</v>
+      </c>
+      <c r="G174" t="s">
+        <v>598</v>
+      </c>
+      <c r="H174" t="s">
+        <v>598</v>
+      </c>
+      <c r="I174" t="s">
+        <v>598</v>
+      </c>
+      <c r="J174" t="s">
+        <v>591</v>
+      </c>
+      <c r="K174" t="s">
+        <v>595</v>
+      </c>
+      <c r="L174" t="s">
+        <v>607</v>
+      </c>
+      <c r="M174" t="s">
+        <v>592</v>
+      </c>
+      <c r="N174" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -5942,8 +10109,35 @@
       <c r="E175">
         <v>17</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="G175" t="s">
+        <v>598</v>
+      </c>
+      <c r="H175" t="s">
+        <v>598</v>
+      </c>
+      <c r="I175" t="s">
+        <v>598</v>
+      </c>
+      <c r="J175" t="s">
+        <v>591</v>
+      </c>
+      <c r="K175" t="s">
+        <v>595</v>
+      </c>
+      <c r="L175" t="s">
+        <v>598</v>
+      </c>
+      <c r="M175" t="s">
+        <v>623</v>
+      </c>
+      <c r="N175" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -5959,8 +10153,35 @@
       <c r="E176">
         <v>17</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176" t="s">
+        <v>598</v>
+      </c>
+      <c r="H176" t="s">
+        <v>598</v>
+      </c>
+      <c r="I176" t="s">
+        <v>598</v>
+      </c>
+      <c r="J176" t="s">
+        <v>591</v>
+      </c>
+      <c r="K176" t="s">
+        <v>595</v>
+      </c>
+      <c r="L176" t="s">
+        <v>607</v>
+      </c>
+      <c r="M176" t="s">
+        <v>592</v>
+      </c>
+      <c r="N176" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -5976,8 +10197,35 @@
       <c r="E177">
         <v>17</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177" t="s">
+        <v>598</v>
+      </c>
+      <c r="H177" t="s">
+        <v>598</v>
+      </c>
+      <c r="I177" t="s">
+        <v>598</v>
+      </c>
+      <c r="J177" t="s">
+        <v>591</v>
+      </c>
+      <c r="K177" t="s">
+        <v>595</v>
+      </c>
+      <c r="L177" t="s">
+        <v>595</v>
+      </c>
+      <c r="M177" t="s">
+        <v>592</v>
+      </c>
+      <c r="N177" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -5993,8 +10241,35 @@
       <c r="E178">
         <v>18</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178" t="s">
+        <v>598</v>
+      </c>
+      <c r="H178" t="s">
+        <v>598</v>
+      </c>
+      <c r="I178" t="s">
+        <v>598</v>
+      </c>
+      <c r="J178" t="s">
+        <v>591</v>
+      </c>
+      <c r="K178" t="s">
+        <v>595</v>
+      </c>
+      <c r="L178" t="s">
+        <v>598</v>
+      </c>
+      <c r="M178" t="s">
+        <v>623</v>
+      </c>
+      <c r="N178" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -6010,8 +10285,35 @@
       <c r="E179">
         <v>18</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="G179" t="s">
+        <v>598</v>
+      </c>
+      <c r="H179" t="s">
+        <v>598</v>
+      </c>
+      <c r="I179" t="s">
+        <v>598</v>
+      </c>
+      <c r="J179" t="s">
+        <v>591</v>
+      </c>
+      <c r="K179" t="s">
+        <v>595</v>
+      </c>
+      <c r="L179" t="s">
+        <v>595</v>
+      </c>
+      <c r="M179" t="s">
+        <v>608</v>
+      </c>
+      <c r="N179" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -6027,8 +10329,35 @@
       <c r="E180">
         <v>18</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F180">
+        <v>1</v>
+      </c>
+      <c r="G180" t="s">
+        <v>598</v>
+      </c>
+      <c r="H180" t="s">
+        <v>598</v>
+      </c>
+      <c r="I180" t="s">
+        <v>598</v>
+      </c>
+      <c r="J180" t="s">
+        <v>591</v>
+      </c>
+      <c r="K180" t="s">
+        <v>595</v>
+      </c>
+      <c r="L180" t="s">
+        <v>598</v>
+      </c>
+      <c r="M180" t="s">
+        <v>623</v>
+      </c>
+      <c r="N180" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -6044,8 +10373,35 @@
       <c r="E181">
         <v>18</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F181">
+        <v>1</v>
+      </c>
+      <c r="G181" t="s">
+        <v>598</v>
+      </c>
+      <c r="H181" t="s">
+        <v>598</v>
+      </c>
+      <c r="I181" t="s">
+        <v>598</v>
+      </c>
+      <c r="J181" t="s">
+        <v>591</v>
+      </c>
+      <c r="K181" t="s">
+        <v>595</v>
+      </c>
+      <c r="L181" t="s">
+        <v>595</v>
+      </c>
+      <c r="M181" t="s">
+        <v>592</v>
+      </c>
+      <c r="N181" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -6061,8 +10417,35 @@
       <c r="E182">
         <v>18</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F182">
+        <v>1</v>
+      </c>
+      <c r="G182" t="s">
+        <v>598</v>
+      </c>
+      <c r="H182" t="s">
+        <v>598</v>
+      </c>
+      <c r="I182" t="s">
+        <v>598</v>
+      </c>
+      <c r="J182" t="s">
+        <v>591</v>
+      </c>
+      <c r="K182" t="s">
+        <v>595</v>
+      </c>
+      <c r="L182" t="s">
+        <v>595</v>
+      </c>
+      <c r="M182" t="s">
+        <v>592</v>
+      </c>
+      <c r="N182" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -6078,8 +10461,35 @@
       <c r="E183">
         <v>18</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F183">
+        <v>1</v>
+      </c>
+      <c r="G183" t="s">
+        <v>595</v>
+      </c>
+      <c r="H183" t="s">
+        <v>598</v>
+      </c>
+      <c r="I183" t="s">
+        <v>598</v>
+      </c>
+      <c r="J183" t="s">
+        <v>605</v>
+      </c>
+      <c r="K183" t="s">
+        <v>595</v>
+      </c>
+      <c r="L183" t="s">
+        <v>595</v>
+      </c>
+      <c r="M183" t="s">
+        <v>592</v>
+      </c>
+      <c r="N183" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -6095,8 +10505,38 @@
       <c r="E184">
         <v>18</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="G184" t="s">
+        <v>598</v>
+      </c>
+      <c r="H184" t="s">
+        <v>598</v>
+      </c>
+      <c r="I184" t="s">
+        <v>598</v>
+      </c>
+      <c r="J184" t="s">
+        <v>591</v>
+      </c>
+      <c r="K184" t="s">
+        <v>607</v>
+      </c>
+      <c r="L184" t="s">
+        <v>607</v>
+      </c>
+      <c r="M184" t="s">
+        <v>619</v>
+      </c>
+      <c r="N184" t="s">
+        <v>595</v>
+      </c>
+      <c r="O184" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -6112,8 +10552,38 @@
       <c r="E185">
         <v>18</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F185">
+        <v>1</v>
+      </c>
+      <c r="G185" t="s">
+        <v>598</v>
+      </c>
+      <c r="H185" t="s">
+        <v>598</v>
+      </c>
+      <c r="I185" t="s">
+        <v>598</v>
+      </c>
+      <c r="J185" t="s">
+        <v>591</v>
+      </c>
+      <c r="K185" t="s">
+        <v>598</v>
+      </c>
+      <c r="L185" t="s">
+        <v>595</v>
+      </c>
+      <c r="M185" t="s">
+        <v>637</v>
+      </c>
+      <c r="N185" t="s">
+        <v>595</v>
+      </c>
+      <c r="O185" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -6129,8 +10599,35 @@
       <c r="E186">
         <v>19</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="G186" t="s">
+        <v>595</v>
+      </c>
+      <c r="H186" t="s">
+        <v>598</v>
+      </c>
+      <c r="I186" t="s">
+        <v>598</v>
+      </c>
+      <c r="J186" t="s">
+        <v>591</v>
+      </c>
+      <c r="K186" t="s">
+        <v>595</v>
+      </c>
+      <c r="L186" t="s">
+        <v>598</v>
+      </c>
+      <c r="M186" t="s">
+        <v>623</v>
+      </c>
+      <c r="N186" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -6146,8 +10643,35 @@
       <c r="E187">
         <v>19</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F187">
+        <v>1</v>
+      </c>
+      <c r="G187" t="s">
+        <v>598</v>
+      </c>
+      <c r="H187" t="s">
+        <v>598</v>
+      </c>
+      <c r="I187" t="s">
+        <v>598</v>
+      </c>
+      <c r="J187" t="s">
+        <v>591</v>
+      </c>
+      <c r="K187" t="s">
+        <v>595</v>
+      </c>
+      <c r="L187" t="s">
+        <v>607</v>
+      </c>
+      <c r="M187" t="s">
+        <v>592</v>
+      </c>
+      <c r="N187" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -6163,8 +10687,35 @@
       <c r="E188">
         <v>19</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F188">
+        <v>1</v>
+      </c>
+      <c r="G188" t="s">
+        <v>598</v>
+      </c>
+      <c r="H188" t="s">
+        <v>598</v>
+      </c>
+      <c r="I188" t="s">
+        <v>598</v>
+      </c>
+      <c r="J188" t="s">
+        <v>591</v>
+      </c>
+      <c r="K188" t="s">
+        <v>595</v>
+      </c>
+      <c r="L188" t="s">
+        <v>607</v>
+      </c>
+      <c r="M188" t="s">
+        <v>592</v>
+      </c>
+      <c r="N188" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -6180,8 +10731,35 @@
       <c r="E189">
         <v>19</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F189">
+        <v>1</v>
+      </c>
+      <c r="G189" t="s">
+        <v>598</v>
+      </c>
+      <c r="H189" t="s">
+        <v>598</v>
+      </c>
+      <c r="I189" t="s">
+        <v>598</v>
+      </c>
+      <c r="J189" t="s">
+        <v>591</v>
+      </c>
+      <c r="K189" t="s">
+        <v>595</v>
+      </c>
+      <c r="L189" t="s">
+        <v>607</v>
+      </c>
+      <c r="M189" t="s">
+        <v>592</v>
+      </c>
+      <c r="N189" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -6197,8 +10775,38 @@
       <c r="E190">
         <v>19</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="G190" t="s">
+        <v>598</v>
+      </c>
+      <c r="H190" t="s">
+        <v>598</v>
+      </c>
+      <c r="I190" t="s">
+        <v>598</v>
+      </c>
+      <c r="J190" t="s">
+        <v>591</v>
+      </c>
+      <c r="K190" t="s">
+        <v>598</v>
+      </c>
+      <c r="L190" t="s">
+        <v>607</v>
+      </c>
+      <c r="M190" t="s">
+        <v>655</v>
+      </c>
+      <c r="N190" t="s">
+        <v>595</v>
+      </c>
+      <c r="O190" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -6214,8 +10822,35 @@
       <c r="E191">
         <v>19</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191" t="s">
+        <v>598</v>
+      </c>
+      <c r="H191" t="s">
+        <v>598</v>
+      </c>
+      <c r="I191" t="s">
+        <v>598</v>
+      </c>
+      <c r="J191" t="s">
+        <v>591</v>
+      </c>
+      <c r="K191" t="s">
+        <v>595</v>
+      </c>
+      <c r="L191" t="s">
+        <v>595</v>
+      </c>
+      <c r="M191" t="s">
+        <v>592</v>
+      </c>
+      <c r="N191" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -6231,8 +10866,38 @@
       <c r="E192">
         <v>19</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F192">
+        <v>2</v>
+      </c>
+      <c r="G192" t="s">
+        <v>598</v>
+      </c>
+      <c r="H192" t="s">
+        <v>598</v>
+      </c>
+      <c r="I192" t="s">
+        <v>598</v>
+      </c>
+      <c r="J192" t="s">
+        <v>591</v>
+      </c>
+      <c r="K192" t="s">
+        <v>598</v>
+      </c>
+      <c r="L192" t="s">
+        <v>598</v>
+      </c>
+      <c r="M192" t="s">
+        <v>617</v>
+      </c>
+      <c r="N192" t="s">
+        <v>595</v>
+      </c>
+      <c r="O192" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -6248,8 +10913,35 @@
       <c r="E193">
         <v>19</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F193">
+        <v>1</v>
+      </c>
+      <c r="G193" t="s">
+        <v>595</v>
+      </c>
+      <c r="H193" t="s">
+        <v>598</v>
+      </c>
+      <c r="I193" t="s">
+        <v>598</v>
+      </c>
+      <c r="J193" t="s">
+        <v>591</v>
+      </c>
+      <c r="K193" t="s">
+        <v>607</v>
+      </c>
+      <c r="L193" t="s">
+        <v>607</v>
+      </c>
+      <c r="M193" t="s">
+        <v>619</v>
+      </c>
+      <c r="N193" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -6265,8 +10957,35 @@
       <c r="E194">
         <v>19</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F194">
+        <v>1</v>
+      </c>
+      <c r="G194" t="s">
+        <v>598</v>
+      </c>
+      <c r="H194" t="s">
+        <v>598</v>
+      </c>
+      <c r="I194" t="s">
+        <v>598</v>
+      </c>
+      <c r="J194" t="s">
+        <v>591</v>
+      </c>
+      <c r="K194" t="s">
+        <v>595</v>
+      </c>
+      <c r="L194" t="s">
+        <v>595</v>
+      </c>
+      <c r="M194" t="s">
+        <v>592</v>
+      </c>
+      <c r="N194" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -6282,8 +11001,35 @@
       <c r="E195">
         <v>19</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F195">
+        <v>1</v>
+      </c>
+      <c r="G195" t="s">
+        <v>598</v>
+      </c>
+      <c r="H195" t="s">
+        <v>598</v>
+      </c>
+      <c r="I195" t="s">
+        <v>598</v>
+      </c>
+      <c r="J195" t="s">
+        <v>591</v>
+      </c>
+      <c r="K195" t="s">
+        <v>595</v>
+      </c>
+      <c r="L195" t="s">
+        <v>595</v>
+      </c>
+      <c r="M195" t="s">
+        <v>592</v>
+      </c>
+      <c r="N195" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -6299,8 +11045,38 @@
       <c r="E196">
         <v>19</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F196">
+        <v>1</v>
+      </c>
+      <c r="G196" t="s">
+        <v>595</v>
+      </c>
+      <c r="H196" t="s">
+        <v>598</v>
+      </c>
+      <c r="I196" t="s">
+        <v>598</v>
+      </c>
+      <c r="J196" t="s">
+        <v>605</v>
+      </c>
+      <c r="K196" t="s">
+        <v>595</v>
+      </c>
+      <c r="L196" t="s">
+        <v>598</v>
+      </c>
+      <c r="M196" t="s">
+        <v>655</v>
+      </c>
+      <c r="N196" t="s">
+        <v>595</v>
+      </c>
+      <c r="O196" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -6316,8 +11092,35 @@
       <c r="E197">
         <v>19</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F197">
+        <v>3</v>
+      </c>
+      <c r="G197" t="s">
+        <v>598</v>
+      </c>
+      <c r="H197" t="s">
+        <v>598</v>
+      </c>
+      <c r="I197" t="s">
+        <v>598</v>
+      </c>
+      <c r="J197" t="s">
+        <v>605</v>
+      </c>
+      <c r="K197" t="s">
+        <v>595</v>
+      </c>
+      <c r="L197" t="s">
+        <v>595</v>
+      </c>
+      <c r="M197" t="s">
+        <v>592</v>
+      </c>
+      <c r="N197" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -6333,8 +11136,38 @@
       <c r="E198">
         <v>20</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F198">
+        <v>1</v>
+      </c>
+      <c r="G198" t="s">
+        <v>598</v>
+      </c>
+      <c r="H198" t="s">
+        <v>598</v>
+      </c>
+      <c r="I198" t="s">
+        <v>598</v>
+      </c>
+      <c r="J198" t="s">
+        <v>591</v>
+      </c>
+      <c r="K198" t="s">
+        <v>595</v>
+      </c>
+      <c r="L198" t="s">
+        <v>598</v>
+      </c>
+      <c r="M198" t="s">
+        <v>655</v>
+      </c>
+      <c r="N198" t="s">
+        <v>595</v>
+      </c>
+      <c r="O198" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -6350,8 +11183,38 @@
       <c r="E199">
         <v>20</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F199">
+        <v>1</v>
+      </c>
+      <c r="G199" t="s">
+        <v>595</v>
+      </c>
+      <c r="H199" t="s">
+        <v>598</v>
+      </c>
+      <c r="I199" t="s">
+        <v>598</v>
+      </c>
+      <c r="J199" t="s">
+        <v>591</v>
+      </c>
+      <c r="K199" t="s">
+        <v>595</v>
+      </c>
+      <c r="L199" t="s">
+        <v>598</v>
+      </c>
+      <c r="M199" t="s">
+        <v>660</v>
+      </c>
+      <c r="N199" t="s">
+        <v>595</v>
+      </c>
+      <c r="O199" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -6367,8 +11230,35 @@
       <c r="E200">
         <v>20</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F200">
+        <v>1</v>
+      </c>
+      <c r="G200" t="s">
+        <v>595</v>
+      </c>
+      <c r="H200" t="s">
+        <v>598</v>
+      </c>
+      <c r="I200" t="s">
+        <v>598</v>
+      </c>
+      <c r="J200" t="s">
+        <v>591</v>
+      </c>
+      <c r="K200" t="s">
+        <v>595</v>
+      </c>
+      <c r="L200" t="s">
+        <v>595</v>
+      </c>
+      <c r="M200" t="s">
+        <v>592</v>
+      </c>
+      <c r="N200" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -6385,7 +11275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -6402,7 +11292,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -6419,7 +11309,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -6436,7 +11326,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -6453,7 +11343,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -6470,7 +11360,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -6487,7 +11377,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>

--- a/data/part_1_df_title_subset.xlsx
+++ b/data/part_1_df_title_subset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB73F831-8C20-E644-85A1-7F37FFD16DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BA4B86-1472-144B-9B44-167B40C9C739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33180" yWindow="500" windowWidth="34900" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9980" yWindow="760" windowWidth="20260" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="title_subset_analysis" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3149" uniqueCount="669">
   <si>
     <t>type</t>
   </si>
@@ -2021,6 +2021,30 @@
   </si>
   <si>
     <t>Original language article, translated title in article; all caps</t>
+  </si>
+  <si>
+    <t>title is available in "en","es","fr", but is in "fr" in metadata and "es" on landing page</t>
+  </si>
+  <si>
+    <t>bad URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all of the books so far have titles and subtitles in the &lt;title&gt; element. </t>
+  </si>
+  <si>
+    <t>empty &lt;subtitle&gt; element with self closing</t>
+  </si>
+  <si>
+    <t>"en", "ru"</t>
+  </si>
+  <si>
+    <t>badURL</t>
+  </si>
+  <si>
+    <t>resolution URL does not point to the correct DOI, can't find title</t>
+  </si>
+  <si>
+    <t>landing page does not include full title</t>
   </si>
 </sst>
 </file>
@@ -2428,10 +2452,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E201" sqref="E201"/>
+      <selection pane="bottomLeft" activeCell="C280" sqref="C280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11274,6 +11298,36 @@
       <c r="E201">
         <v>20</v>
       </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+      <c r="G201" t="s">
+        <v>595</v>
+      </c>
+      <c r="H201" t="s">
+        <v>598</v>
+      </c>
+      <c r="I201" t="s">
+        <v>598</v>
+      </c>
+      <c r="J201" t="s">
+        <v>591</v>
+      </c>
+      <c r="K201" t="s">
+        <v>598</v>
+      </c>
+      <c r="L201" t="s">
+        <v>598</v>
+      </c>
+      <c r="M201" t="s">
+        <v>623</v>
+      </c>
+      <c r="N201" t="s">
+        <v>595</v>
+      </c>
+      <c r="O201" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="202" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
@@ -11291,6 +11345,33 @@
       <c r="E202">
         <v>183</v>
       </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202" t="s">
+        <v>598</v>
+      </c>
+      <c r="H202" t="s">
+        <v>598</v>
+      </c>
+      <c r="I202" t="s">
+        <v>598</v>
+      </c>
+      <c r="J202" t="s">
+        <v>591</v>
+      </c>
+      <c r="K202" t="s">
+        <v>607</v>
+      </c>
+      <c r="L202" t="s">
+        <v>595</v>
+      </c>
+      <c r="M202" t="s">
+        <v>608</v>
+      </c>
+      <c r="N202" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="203" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
@@ -11308,6 +11389,33 @@
       <c r="E203">
         <v>173</v>
       </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="G203" t="s">
+        <v>598</v>
+      </c>
+      <c r="H203" t="s">
+        <v>598</v>
+      </c>
+      <c r="I203" t="s">
+        <v>598</v>
+      </c>
+      <c r="J203" t="s">
+        <v>591</v>
+      </c>
+      <c r="K203" t="s">
+        <v>595</v>
+      </c>
+      <c r="L203" t="s">
+        <v>595</v>
+      </c>
+      <c r="M203" t="s">
+        <v>592</v>
+      </c>
+      <c r="N203" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="204" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
@@ -11325,6 +11433,33 @@
       <c r="E204">
         <v>170</v>
       </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="G204" t="s">
+        <v>598</v>
+      </c>
+      <c r="H204" t="s">
+        <v>598</v>
+      </c>
+      <c r="I204" t="s">
+        <v>598</v>
+      </c>
+      <c r="J204" t="s">
+        <v>591</v>
+      </c>
+      <c r="K204" t="s">
+        <v>595</v>
+      </c>
+      <c r="L204" t="s">
+        <v>607</v>
+      </c>
+      <c r="M204" t="s">
+        <v>592</v>
+      </c>
+      <c r="N204" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="205" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
@@ -11342,6 +11477,33 @@
       <c r="E205">
         <v>164</v>
       </c>
+      <c r="F205">
+        <v>1</v>
+      </c>
+      <c r="G205" t="s">
+        <v>598</v>
+      </c>
+      <c r="H205" t="s">
+        <v>598</v>
+      </c>
+      <c r="I205" t="s">
+        <v>598</v>
+      </c>
+      <c r="J205" t="s">
+        <v>591</v>
+      </c>
+      <c r="K205" t="s">
+        <v>595</v>
+      </c>
+      <c r="L205" t="s">
+        <v>595</v>
+      </c>
+      <c r="M205" t="s">
+        <v>592</v>
+      </c>
+      <c r="N205" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="206" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
@@ -11359,6 +11521,33 @@
       <c r="E206">
         <v>146</v>
       </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="G206" t="s">
+        <v>598</v>
+      </c>
+      <c r="H206" t="s">
+        <v>598</v>
+      </c>
+      <c r="I206" t="s">
+        <v>598</v>
+      </c>
+      <c r="J206" t="s">
+        <v>591</v>
+      </c>
+      <c r="K206" t="s">
+        <v>595</v>
+      </c>
+      <c r="L206" t="s">
+        <v>607</v>
+      </c>
+      <c r="M206" t="s">
+        <v>592</v>
+      </c>
+      <c r="N206" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="207" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
@@ -11376,6 +11565,33 @@
       <c r="E207">
         <v>145</v>
       </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207" t="s">
+        <v>598</v>
+      </c>
+      <c r="H207" t="s">
+        <v>598</v>
+      </c>
+      <c r="I207" t="s">
+        <v>598</v>
+      </c>
+      <c r="J207" t="s">
+        <v>591</v>
+      </c>
+      <c r="K207" t="s">
+        <v>595</v>
+      </c>
+      <c r="L207" t="s">
+        <v>607</v>
+      </c>
+      <c r="M207" t="s">
+        <v>592</v>
+      </c>
+      <c r="N207" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="208" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
@@ -11393,8 +11609,38 @@
       <c r="E208">
         <v>144</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F208">
+        <v>1</v>
+      </c>
+      <c r="G208" t="s">
+        <v>598</v>
+      </c>
+      <c r="H208" t="s">
+        <v>598</v>
+      </c>
+      <c r="I208" t="s">
+        <v>598</v>
+      </c>
+      <c r="J208" t="s">
+        <v>591</v>
+      </c>
+      <c r="K208" t="s">
+        <v>607</v>
+      </c>
+      <c r="L208" t="s">
+        <v>607</v>
+      </c>
+      <c r="M208" t="s">
+        <v>619</v>
+      </c>
+      <c r="N208" t="s">
+        <v>595</v>
+      </c>
+      <c r="O208" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -11410,8 +11656,38 @@
       <c r="E209">
         <v>143</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F209">
+        <v>1</v>
+      </c>
+      <c r="G209" t="s">
+        <v>598</v>
+      </c>
+      <c r="H209" t="s">
+        <v>598</v>
+      </c>
+      <c r="I209" t="s">
+        <v>598</v>
+      </c>
+      <c r="J209" t="s">
+        <v>591</v>
+      </c>
+      <c r="K209" t="s">
+        <v>595</v>
+      </c>
+      <c r="L209" t="s">
+        <v>595</v>
+      </c>
+      <c r="M209" t="s">
+        <v>608</v>
+      </c>
+      <c r="N209" t="s">
+        <v>595</v>
+      </c>
+      <c r="O209" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -11427,8 +11703,35 @@
       <c r="E210">
         <v>143</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F210">
+        <v>1</v>
+      </c>
+      <c r="G210" t="s">
+        <v>598</v>
+      </c>
+      <c r="H210" t="s">
+        <v>598</v>
+      </c>
+      <c r="I210" t="s">
+        <v>598</v>
+      </c>
+      <c r="J210" t="s">
+        <v>591</v>
+      </c>
+      <c r="K210" t="s">
+        <v>595</v>
+      </c>
+      <c r="L210" t="s">
+        <v>607</v>
+      </c>
+      <c r="M210" t="s">
+        <v>592</v>
+      </c>
+      <c r="N210" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -11444,8 +11747,35 @@
       <c r="E211">
         <v>127</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F211">
+        <v>1</v>
+      </c>
+      <c r="G211" t="s">
+        <v>598</v>
+      </c>
+      <c r="H211" t="s">
+        <v>598</v>
+      </c>
+      <c r="I211" t="s">
+        <v>598</v>
+      </c>
+      <c r="J211" t="s">
+        <v>591</v>
+      </c>
+      <c r="K211" t="s">
+        <v>595</v>
+      </c>
+      <c r="L211" t="s">
+        <v>595</v>
+      </c>
+      <c r="M211" t="s">
+        <v>592</v>
+      </c>
+      <c r="N211" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -11461,8 +11791,35 @@
       <c r="E212">
         <v>127</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F212">
+        <v>1</v>
+      </c>
+      <c r="G212" t="s">
+        <v>598</v>
+      </c>
+      <c r="H212" t="s">
+        <v>598</v>
+      </c>
+      <c r="I212" t="s">
+        <v>598</v>
+      </c>
+      <c r="J212" t="s">
+        <v>591</v>
+      </c>
+      <c r="K212" t="s">
+        <v>595</v>
+      </c>
+      <c r="L212" t="s">
+        <v>595</v>
+      </c>
+      <c r="M212" t="s">
+        <v>608</v>
+      </c>
+      <c r="N212" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -11478,8 +11835,35 @@
       <c r="E213">
         <v>125</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F213">
+        <v>1</v>
+      </c>
+      <c r="G213" t="s">
+        <v>598</v>
+      </c>
+      <c r="H213" t="s">
+        <v>598</v>
+      </c>
+      <c r="I213" t="s">
+        <v>598</v>
+      </c>
+      <c r="J213" t="s">
+        <v>591</v>
+      </c>
+      <c r="K213" t="s">
+        <v>595</v>
+      </c>
+      <c r="L213" t="s">
+        <v>607</v>
+      </c>
+      <c r="M213" t="s">
+        <v>592</v>
+      </c>
+      <c r="N213" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -11495,8 +11879,35 @@
       <c r="E214">
         <v>125</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F214">
+        <v>1</v>
+      </c>
+      <c r="G214" t="s">
+        <v>598</v>
+      </c>
+      <c r="H214" t="s">
+        <v>598</v>
+      </c>
+      <c r="I214" t="s">
+        <v>598</v>
+      </c>
+      <c r="J214" t="s">
+        <v>591</v>
+      </c>
+      <c r="K214" t="s">
+        <v>607</v>
+      </c>
+      <c r="L214" t="s">
+        <v>595</v>
+      </c>
+      <c r="M214" t="s">
+        <v>592</v>
+      </c>
+      <c r="N214" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -11512,8 +11923,35 @@
       <c r="E215">
         <v>124</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F215">
+        <v>1</v>
+      </c>
+      <c r="G215" t="s">
+        <v>598</v>
+      </c>
+      <c r="H215" t="s">
+        <v>598</v>
+      </c>
+      <c r="I215" t="s">
+        <v>598</v>
+      </c>
+      <c r="J215" t="s">
+        <v>591</v>
+      </c>
+      <c r="K215" t="s">
+        <v>607</v>
+      </c>
+      <c r="L215" t="s">
+        <v>607</v>
+      </c>
+      <c r="M215" t="s">
+        <v>619</v>
+      </c>
+      <c r="N215" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -11529,8 +11967,35 @@
       <c r="E216">
         <v>124</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F216">
+        <v>1</v>
+      </c>
+      <c r="G216" t="s">
+        <v>598</v>
+      </c>
+      <c r="H216" t="s">
+        <v>598</v>
+      </c>
+      <c r="I216" t="s">
+        <v>598</v>
+      </c>
+      <c r="J216" t="s">
+        <v>591</v>
+      </c>
+      <c r="K216" t="s">
+        <v>595</v>
+      </c>
+      <c r="L216" t="s">
+        <v>607</v>
+      </c>
+      <c r="M216" t="s">
+        <v>592</v>
+      </c>
+      <c r="N216" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -11546,8 +12011,35 @@
       <c r="E217">
         <v>123</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F217">
+        <v>1</v>
+      </c>
+      <c r="G217" t="s">
+        <v>598</v>
+      </c>
+      <c r="H217" t="s">
+        <v>595</v>
+      </c>
+      <c r="I217" t="s">
+        <v>598</v>
+      </c>
+      <c r="J217" t="s">
+        <v>591</v>
+      </c>
+      <c r="K217" t="s">
+        <v>607</v>
+      </c>
+      <c r="L217" t="s">
+        <v>607</v>
+      </c>
+      <c r="M217" t="s">
+        <v>619</v>
+      </c>
+      <c r="N217" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -11563,8 +12055,35 @@
       <c r="E218">
         <v>121</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F218">
+        <v>1</v>
+      </c>
+      <c r="G218" t="s">
+        <v>598</v>
+      </c>
+      <c r="H218" t="s">
+        <v>595</v>
+      </c>
+      <c r="I218" t="s">
+        <v>598</v>
+      </c>
+      <c r="J218" t="s">
+        <v>591</v>
+      </c>
+      <c r="K218" t="s">
+        <v>607</v>
+      </c>
+      <c r="L218" t="s">
+        <v>595</v>
+      </c>
+      <c r="M218" t="s">
+        <v>617</v>
+      </c>
+      <c r="N218" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -11580,8 +12099,35 @@
       <c r="E219">
         <v>121</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F219">
+        <v>1</v>
+      </c>
+      <c r="G219" t="s">
+        <v>595</v>
+      </c>
+      <c r="H219" t="s">
+        <v>598</v>
+      </c>
+      <c r="I219" t="s">
+        <v>598</v>
+      </c>
+      <c r="J219" t="s">
+        <v>591</v>
+      </c>
+      <c r="K219" t="s">
+        <v>595</v>
+      </c>
+      <c r="L219" t="s">
+        <v>607</v>
+      </c>
+      <c r="M219" t="s">
+        <v>592</v>
+      </c>
+      <c r="N219" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -11597,8 +12143,35 @@
       <c r="E220">
         <v>120</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F220">
+        <v>1</v>
+      </c>
+      <c r="G220" t="s">
+        <v>598</v>
+      </c>
+      <c r="H220" t="s">
+        <v>598</v>
+      </c>
+      <c r="I220" t="s">
+        <v>598</v>
+      </c>
+      <c r="J220" t="s">
+        <v>591</v>
+      </c>
+      <c r="K220" t="s">
+        <v>595</v>
+      </c>
+      <c r="L220" t="s">
+        <v>607</v>
+      </c>
+      <c r="M220" t="s">
+        <v>592</v>
+      </c>
+      <c r="N220" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -11614,8 +12187,35 @@
       <c r="E221">
         <v>118</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F221">
+        <v>1</v>
+      </c>
+      <c r="G221" t="s">
+        <v>598</v>
+      </c>
+      <c r="H221" t="s">
+        <v>598</v>
+      </c>
+      <c r="I221" t="s">
+        <v>598</v>
+      </c>
+      <c r="J221" t="s">
+        <v>591</v>
+      </c>
+      <c r="K221" t="s">
+        <v>595</v>
+      </c>
+      <c r="L221" t="s">
+        <v>595</v>
+      </c>
+      <c r="M221" t="s">
+        <v>592</v>
+      </c>
+      <c r="N221" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -11631,8 +12231,35 @@
       <c r="E222">
         <v>118</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222" t="s">
+        <v>598</v>
+      </c>
+      <c r="H222" t="s">
+        <v>598</v>
+      </c>
+      <c r="I222" t="s">
+        <v>598</v>
+      </c>
+      <c r="J222" t="s">
+        <v>591</v>
+      </c>
+      <c r="K222" t="s">
+        <v>595</v>
+      </c>
+      <c r="L222" t="s">
+        <v>607</v>
+      </c>
+      <c r="M222" t="s">
+        <v>592</v>
+      </c>
+      <c r="N222" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -11648,8 +12275,35 @@
       <c r="E223">
         <v>118</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223" t="s">
+        <v>598</v>
+      </c>
+      <c r="H223" t="s">
+        <v>598</v>
+      </c>
+      <c r="I223" t="s">
+        <v>598</v>
+      </c>
+      <c r="J223" t="s">
+        <v>591</v>
+      </c>
+      <c r="K223" t="s">
+        <v>595</v>
+      </c>
+      <c r="L223" t="s">
+        <v>595</v>
+      </c>
+      <c r="M223" t="s">
+        <v>608</v>
+      </c>
+      <c r="N223" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -11665,8 +12319,35 @@
       <c r="E224">
         <v>111</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224" t="s">
+        <v>598</v>
+      </c>
+      <c r="H224" t="s">
+        <v>598</v>
+      </c>
+      <c r="I224" t="s">
+        <v>598</v>
+      </c>
+      <c r="J224" t="s">
+        <v>591</v>
+      </c>
+      <c r="K224" t="s">
+        <v>607</v>
+      </c>
+      <c r="L224" t="s">
+        <v>607</v>
+      </c>
+      <c r="M224" t="s">
+        <v>619</v>
+      </c>
+      <c r="N224" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -11682,8 +12363,35 @@
       <c r="E225">
         <v>111</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225" t="s">
+        <v>598</v>
+      </c>
+      <c r="H225" t="s">
+        <v>598</v>
+      </c>
+      <c r="I225" t="s">
+        <v>598</v>
+      </c>
+      <c r="J225" t="s">
+        <v>591</v>
+      </c>
+      <c r="K225" t="s">
+        <v>595</v>
+      </c>
+      <c r="L225" t="s">
+        <v>595</v>
+      </c>
+      <c r="M225" t="s">
+        <v>592</v>
+      </c>
+      <c r="N225" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -11699,8 +12407,38 @@
       <c r="E226">
         <v>110</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226" t="s">
+        <v>595</v>
+      </c>
+      <c r="H226" t="s">
+        <v>598</v>
+      </c>
+      <c r="I226" t="s">
+        <v>598</v>
+      </c>
+      <c r="J226" t="s">
+        <v>591</v>
+      </c>
+      <c r="K226" t="s">
+        <v>595</v>
+      </c>
+      <c r="L226" t="s">
+        <v>607</v>
+      </c>
+      <c r="M226" t="s">
+        <v>592</v>
+      </c>
+      <c r="N226" t="s">
+        <v>595</v>
+      </c>
+      <c r="O226" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -11716,8 +12454,35 @@
       <c r="E227">
         <v>4</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227" t="s">
+        <v>595</v>
+      </c>
+      <c r="H227" t="s">
+        <v>598</v>
+      </c>
+      <c r="I227" t="s">
+        <v>598</v>
+      </c>
+      <c r="J227" t="s">
+        <v>591</v>
+      </c>
+      <c r="K227" t="s">
+        <v>595</v>
+      </c>
+      <c r="L227" t="s">
+        <v>595</v>
+      </c>
+      <c r="M227" t="s">
+        <v>592</v>
+      </c>
+      <c r="N227" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -11733,8 +12498,35 @@
       <c r="E228">
         <v>5</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228" t="s">
+        <v>595</v>
+      </c>
+      <c r="H228" t="s">
+        <v>598</v>
+      </c>
+      <c r="I228" t="s">
+        <v>598</v>
+      </c>
+      <c r="J228" t="s">
+        <v>591</v>
+      </c>
+      <c r="K228" t="s">
+        <v>595</v>
+      </c>
+      <c r="L228" t="s">
+        <v>595</v>
+      </c>
+      <c r="M228" t="s">
+        <v>592</v>
+      </c>
+      <c r="N228" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -11750,8 +12542,35 @@
       <c r="E229">
         <v>7</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229" t="s">
+        <v>598</v>
+      </c>
+      <c r="H229" t="s">
+        <v>598</v>
+      </c>
+      <c r="I229" t="s">
+        <v>598</v>
+      </c>
+      <c r="J229" t="s">
+        <v>591</v>
+      </c>
+      <c r="K229" t="s">
+        <v>595</v>
+      </c>
+      <c r="L229" t="s">
+        <v>595</v>
+      </c>
+      <c r="M229" t="s">
+        <v>592</v>
+      </c>
+      <c r="N229" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -11767,8 +12586,35 @@
       <c r="E230">
         <v>8</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230" t="s">
+        <v>598</v>
+      </c>
+      <c r="H230" t="s">
+        <v>595</v>
+      </c>
+      <c r="I230" t="s">
+        <v>598</v>
+      </c>
+      <c r="J230" t="s">
+        <v>605</v>
+      </c>
+      <c r="K230" t="s">
+        <v>595</v>
+      </c>
+      <c r="L230" t="s">
+        <v>607</v>
+      </c>
+      <c r="M230" t="s">
+        <v>592</v>
+      </c>
+      <c r="N230" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -11784,8 +12630,35 @@
       <c r="E231">
         <v>8</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231" t="s">
+        <v>598</v>
+      </c>
+      <c r="H231" t="s">
+        <v>598</v>
+      </c>
+      <c r="I231" t="s">
+        <v>598</v>
+      </c>
+      <c r="J231" t="s">
+        <v>591</v>
+      </c>
+      <c r="K231" t="s">
+        <v>595</v>
+      </c>
+      <c r="L231" t="s">
+        <v>607</v>
+      </c>
+      <c r="M231" t="s">
+        <v>592</v>
+      </c>
+      <c r="N231" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -11801,8 +12674,35 @@
       <c r="E232">
         <v>8</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232" t="s">
+        <v>598</v>
+      </c>
+      <c r="H232" t="s">
+        <v>598</v>
+      </c>
+      <c r="I232" t="s">
+        <v>598</v>
+      </c>
+      <c r="J232" t="s">
+        <v>591</v>
+      </c>
+      <c r="K232" t="s">
+        <v>595</v>
+      </c>
+      <c r="L232" t="s">
+        <v>595</v>
+      </c>
+      <c r="M232" t="s">
+        <v>592</v>
+      </c>
+      <c r="N232" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -11818,8 +12718,35 @@
       <c r="E233">
         <v>9</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233" t="s">
+        <v>598</v>
+      </c>
+      <c r="H233" t="s">
+        <v>598</v>
+      </c>
+      <c r="I233" t="s">
+        <v>598</v>
+      </c>
+      <c r="J233" t="s">
+        <v>591</v>
+      </c>
+      <c r="K233" t="s">
+        <v>595</v>
+      </c>
+      <c r="L233" t="s">
+        <v>607</v>
+      </c>
+      <c r="M233" t="s">
+        <v>592</v>
+      </c>
+      <c r="N233" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -11835,8 +12762,35 @@
       <c r="E234">
         <v>9</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F234">
+        <v>1</v>
+      </c>
+      <c r="G234" t="s">
+        <v>598</v>
+      </c>
+      <c r="H234" t="s">
+        <v>598</v>
+      </c>
+      <c r="I234" t="s">
+        <v>598</v>
+      </c>
+      <c r="J234" t="s">
+        <v>591</v>
+      </c>
+      <c r="K234" t="s">
+        <v>595</v>
+      </c>
+      <c r="L234" t="s">
+        <v>595</v>
+      </c>
+      <c r="M234" t="s">
+        <v>592</v>
+      </c>
+      <c r="N234" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -11852,8 +12806,35 @@
       <c r="E235">
         <v>10</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F235">
+        <v>1</v>
+      </c>
+      <c r="G235" t="s">
+        <v>595</v>
+      </c>
+      <c r="H235" t="s">
+        <v>598</v>
+      </c>
+      <c r="I235" t="s">
+        <v>598</v>
+      </c>
+      <c r="J235" t="s">
+        <v>591</v>
+      </c>
+      <c r="K235" t="s">
+        <v>595</v>
+      </c>
+      <c r="L235" t="s">
+        <v>607</v>
+      </c>
+      <c r="M235" t="s">
+        <v>592</v>
+      </c>
+      <c r="N235" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -11869,8 +12850,35 @@
       <c r="E236">
         <v>10</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F236">
+        <v>1</v>
+      </c>
+      <c r="G236" t="s">
+        <v>598</v>
+      </c>
+      <c r="H236" t="s">
+        <v>595</v>
+      </c>
+      <c r="I236" t="s">
+        <v>598</v>
+      </c>
+      <c r="J236" t="s">
+        <v>605</v>
+      </c>
+      <c r="K236" t="s">
+        <v>595</v>
+      </c>
+      <c r="L236" t="s">
+        <v>607</v>
+      </c>
+      <c r="M236" t="s">
+        <v>592</v>
+      </c>
+      <c r="N236" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -11886,8 +12894,35 @@
       <c r="E237">
         <v>11</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="G237" t="s">
+        <v>598</v>
+      </c>
+      <c r="H237" t="s">
+        <v>598</v>
+      </c>
+      <c r="I237" t="s">
+        <v>598</v>
+      </c>
+      <c r="J237" t="s">
+        <v>591</v>
+      </c>
+      <c r="K237" t="s">
+        <v>595</v>
+      </c>
+      <c r="L237" t="s">
+        <v>607</v>
+      </c>
+      <c r="M237" t="s">
+        <v>592</v>
+      </c>
+      <c r="N237" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -11903,8 +12938,35 @@
       <c r="E238">
         <v>12</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238" t="s">
+        <v>598</v>
+      </c>
+      <c r="H238" t="s">
+        <v>595</v>
+      </c>
+      <c r="I238" t="s">
+        <v>598</v>
+      </c>
+      <c r="J238" t="s">
+        <v>605</v>
+      </c>
+      <c r="K238" t="s">
+        <v>595</v>
+      </c>
+      <c r="L238" t="s">
+        <v>595</v>
+      </c>
+      <c r="M238" t="s">
+        <v>592</v>
+      </c>
+      <c r="N238" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -11920,8 +12982,35 @@
       <c r="E239">
         <v>12</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F239">
+        <v>1</v>
+      </c>
+      <c r="G239" t="s">
+        <v>598</v>
+      </c>
+      <c r="H239" t="s">
+        <v>598</v>
+      </c>
+      <c r="I239" t="s">
+        <v>598</v>
+      </c>
+      <c r="J239" t="s">
+        <v>591</v>
+      </c>
+      <c r="K239" t="s">
+        <v>595</v>
+      </c>
+      <c r="L239" t="s">
+        <v>607</v>
+      </c>
+      <c r="M239" t="s">
+        <v>592</v>
+      </c>
+      <c r="N239" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -11937,8 +13026,35 @@
       <c r="E240">
         <v>12</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240" t="s">
+        <v>598</v>
+      </c>
+      <c r="H240" t="s">
+        <v>598</v>
+      </c>
+      <c r="I240" t="s">
+        <v>598</v>
+      </c>
+      <c r="J240" t="s">
+        <v>591</v>
+      </c>
+      <c r="K240" t="s">
+        <v>607</v>
+      </c>
+      <c r="L240" t="s">
+        <v>595</v>
+      </c>
+      <c r="M240" t="s">
+        <v>592</v>
+      </c>
+      <c r="N240" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -11954,8 +13070,35 @@
       <c r="E241">
         <v>12</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241" t="s">
+        <v>595</v>
+      </c>
+      <c r="H241" t="s">
+        <v>595</v>
+      </c>
+      <c r="I241" t="s">
+        <v>598</v>
+      </c>
+      <c r="J241" t="s">
+        <v>605</v>
+      </c>
+      <c r="K241" t="s">
+        <v>595</v>
+      </c>
+      <c r="L241" t="s">
+        <v>607</v>
+      </c>
+      <c r="M241" t="s">
+        <v>592</v>
+      </c>
+      <c r="N241" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -11971,8 +13114,35 @@
       <c r="E242">
         <v>12</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242" t="s">
+        <v>598</v>
+      </c>
+      <c r="H242" t="s">
+        <v>595</v>
+      </c>
+      <c r="I242" t="s">
+        <v>598</v>
+      </c>
+      <c r="J242" t="s">
+        <v>605</v>
+      </c>
+      <c r="K242" t="s">
+        <v>595</v>
+      </c>
+      <c r="L242" t="s">
+        <v>607</v>
+      </c>
+      <c r="M242" t="s">
+        <v>592</v>
+      </c>
+      <c r="N242" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -11988,8 +13158,35 @@
       <c r="E243">
         <v>12</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="G243" t="s">
+        <v>595</v>
+      </c>
+      <c r="H243" t="s">
+        <v>598</v>
+      </c>
+      <c r="I243" t="s">
+        <v>598</v>
+      </c>
+      <c r="J243" t="s">
+        <v>591</v>
+      </c>
+      <c r="K243" t="s">
+        <v>595</v>
+      </c>
+      <c r="L243" t="s">
+        <v>607</v>
+      </c>
+      <c r="M243" t="s">
+        <v>592</v>
+      </c>
+      <c r="N243" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -12005,8 +13202,35 @@
       <c r="E244">
         <v>13</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244" t="s">
+        <v>595</v>
+      </c>
+      <c r="H244" t="s">
+        <v>598</v>
+      </c>
+      <c r="I244" t="s">
+        <v>598</v>
+      </c>
+      <c r="J244" t="s">
+        <v>591</v>
+      </c>
+      <c r="K244" t="s">
+        <v>595</v>
+      </c>
+      <c r="L244" t="s">
+        <v>607</v>
+      </c>
+      <c r="M244" t="s">
+        <v>592</v>
+      </c>
+      <c r="N244" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -12022,8 +13246,35 @@
       <c r="E245">
         <v>14</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F245">
+        <v>1</v>
+      </c>
+      <c r="G245" t="s">
+        <v>598</v>
+      </c>
+      <c r="H245" t="s">
+        <v>598</v>
+      </c>
+      <c r="I245" t="s">
+        <v>598</v>
+      </c>
+      <c r="J245" t="s">
+        <v>591</v>
+      </c>
+      <c r="K245" t="s">
+        <v>595</v>
+      </c>
+      <c r="L245" t="s">
+        <v>607</v>
+      </c>
+      <c r="M245" t="s">
+        <v>592</v>
+      </c>
+      <c r="N245" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -12039,8 +13290,35 @@
       <c r="E246">
         <v>14</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F246">
+        <v>1</v>
+      </c>
+      <c r="G246" t="s">
+        <v>598</v>
+      </c>
+      <c r="H246" t="s">
+        <v>595</v>
+      </c>
+      <c r="I246" t="s">
+        <v>598</v>
+      </c>
+      <c r="J246" t="s">
+        <v>605</v>
+      </c>
+      <c r="K246" t="s">
+        <v>595</v>
+      </c>
+      <c r="L246" t="s">
+        <v>607</v>
+      </c>
+      <c r="M246" t="s">
+        <v>592</v>
+      </c>
+      <c r="N246" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -12056,8 +13334,35 @@
       <c r="E247">
         <v>15</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="G247" t="s">
+        <v>595</v>
+      </c>
+      <c r="H247" t="s">
+        <v>595</v>
+      </c>
+      <c r="I247" t="s">
+        <v>598</v>
+      </c>
+      <c r="J247" t="s">
+        <v>605</v>
+      </c>
+      <c r="K247" t="s">
+        <v>595</v>
+      </c>
+      <c r="L247" t="s">
+        <v>607</v>
+      </c>
+      <c r="M247" t="s">
+        <v>592</v>
+      </c>
+      <c r="N247" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -12073,8 +13378,35 @@
       <c r="E248">
         <v>15</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248" t="s">
+        <v>595</v>
+      </c>
+      <c r="H248" t="s">
+        <v>598</v>
+      </c>
+      <c r="I248" t="s">
+        <v>598</v>
+      </c>
+      <c r="J248" t="s">
+        <v>591</v>
+      </c>
+      <c r="K248" t="s">
+        <v>595</v>
+      </c>
+      <c r="L248" t="s">
+        <v>607</v>
+      </c>
+      <c r="M248" t="s">
+        <v>592</v>
+      </c>
+      <c r="N248" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -12090,8 +13422,35 @@
       <c r="E249">
         <v>15</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249" t="s">
+        <v>598</v>
+      </c>
+      <c r="H249" t="s">
+        <v>598</v>
+      </c>
+      <c r="I249" t="s">
+        <v>598</v>
+      </c>
+      <c r="J249" t="s">
+        <v>591</v>
+      </c>
+      <c r="K249" t="s">
+        <v>595</v>
+      </c>
+      <c r="L249" t="s">
+        <v>607</v>
+      </c>
+      <c r="M249" t="s">
+        <v>592</v>
+      </c>
+      <c r="N249" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -12107,8 +13466,35 @@
       <c r="E250">
         <v>15</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250" t="s">
+        <v>598</v>
+      </c>
+      <c r="H250" t="s">
+        <v>598</v>
+      </c>
+      <c r="I250" t="s">
+        <v>598</v>
+      </c>
+      <c r="J250" t="s">
+        <v>591</v>
+      </c>
+      <c r="K250" t="s">
+        <v>595</v>
+      </c>
+      <c r="L250" t="s">
+        <v>607</v>
+      </c>
+      <c r="M250" t="s">
+        <v>592</v>
+      </c>
+      <c r="N250" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -12124,8 +13510,35 @@
       <c r="E251">
         <v>16</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F251">
+        <v>1</v>
+      </c>
+      <c r="G251" t="s">
+        <v>595</v>
+      </c>
+      <c r="H251" t="s">
+        <v>598</v>
+      </c>
+      <c r="I251" t="s">
+        <v>598</v>
+      </c>
+      <c r="J251" t="s">
+        <v>591</v>
+      </c>
+      <c r="K251" t="s">
+        <v>595</v>
+      </c>
+      <c r="L251" t="s">
+        <v>595</v>
+      </c>
+      <c r="M251" t="s">
+        <v>592</v>
+      </c>
+      <c r="N251" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -12141,8 +13554,35 @@
       <c r="E252">
         <v>182</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252" t="s">
+        <v>598</v>
+      </c>
+      <c r="H252" t="s">
+        <v>598</v>
+      </c>
+      <c r="I252" t="s">
+        <v>598</v>
+      </c>
+      <c r="J252" t="s">
+        <v>591</v>
+      </c>
+      <c r="K252" t="s">
+        <v>595</v>
+      </c>
+      <c r="L252" t="s">
+        <v>607</v>
+      </c>
+      <c r="M252" t="s">
+        <v>592</v>
+      </c>
+      <c r="N252" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -12158,8 +13598,35 @@
       <c r="E253">
         <v>175</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F253">
+        <v>2</v>
+      </c>
+      <c r="G253" t="s">
+        <v>598</v>
+      </c>
+      <c r="H253" t="s">
+        <v>595</v>
+      </c>
+      <c r="I253" t="s">
+        <v>598</v>
+      </c>
+      <c r="J253" t="s">
+        <v>665</v>
+      </c>
+      <c r="K253" t="s">
+        <v>607</v>
+      </c>
+      <c r="L253" t="s">
+        <v>595</v>
+      </c>
+      <c r="M253" t="s">
+        <v>623</v>
+      </c>
+      <c r="N253" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -12175,8 +13642,35 @@
       <c r="E254">
         <v>168</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254" t="s">
+        <v>598</v>
+      </c>
+      <c r="H254" t="s">
+        <v>595</v>
+      </c>
+      <c r="I254" t="s">
+        <v>598</v>
+      </c>
+      <c r="J254" t="s">
+        <v>591</v>
+      </c>
+      <c r="K254" t="s">
+        <v>595</v>
+      </c>
+      <c r="L254" t="s">
+        <v>607</v>
+      </c>
+      <c r="M254" t="s">
+        <v>592</v>
+      </c>
+      <c r="N254" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -12192,8 +13686,35 @@
       <c r="E255">
         <v>161</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255" t="s">
+        <v>598</v>
+      </c>
+      <c r="H255" t="s">
+        <v>598</v>
+      </c>
+      <c r="I255" t="s">
+        <v>598</v>
+      </c>
+      <c r="J255" t="s">
+        <v>591</v>
+      </c>
+      <c r="K255" t="s">
+        <v>607</v>
+      </c>
+      <c r="L255" t="s">
+        <v>607</v>
+      </c>
+      <c r="M255" t="s">
+        <v>619</v>
+      </c>
+      <c r="N255" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -12209,8 +13730,35 @@
       <c r="E256">
         <v>156</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="G256" t="s">
+        <v>598</v>
+      </c>
+      <c r="H256" t="s">
+        <v>598</v>
+      </c>
+      <c r="I256" t="s">
+        <v>598</v>
+      </c>
+      <c r="J256" t="s">
+        <v>591</v>
+      </c>
+      <c r="K256" t="s">
+        <v>595</v>
+      </c>
+      <c r="L256" t="s">
+        <v>607</v>
+      </c>
+      <c r="M256" t="s">
+        <v>592</v>
+      </c>
+      <c r="N256" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -12226,8 +13774,35 @@
       <c r="E257">
         <v>145</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F257">
+        <v>1</v>
+      </c>
+      <c r="G257" t="s">
+        <v>598</v>
+      </c>
+      <c r="H257" t="s">
+        <v>598</v>
+      </c>
+      <c r="I257" t="s">
+        <v>598</v>
+      </c>
+      <c r="J257" t="s">
+        <v>591</v>
+      </c>
+      <c r="K257" t="s">
+        <v>595</v>
+      </c>
+      <c r="L257" t="s">
+        <v>607</v>
+      </c>
+      <c r="M257" t="s">
+        <v>592</v>
+      </c>
+      <c r="N257" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -12243,8 +13818,35 @@
       <c r="E258">
         <v>143</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F258">
+        <v>1</v>
+      </c>
+      <c r="G258" t="s">
+        <v>598</v>
+      </c>
+      <c r="H258" t="s">
+        <v>598</v>
+      </c>
+      <c r="I258" t="s">
+        <v>598</v>
+      </c>
+      <c r="J258" t="s">
+        <v>591</v>
+      </c>
+      <c r="K258" t="s">
+        <v>595</v>
+      </c>
+      <c r="L258" t="s">
+        <v>607</v>
+      </c>
+      <c r="M258" t="s">
+        <v>592</v>
+      </c>
+      <c r="N258" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -12260,8 +13862,35 @@
       <c r="E259">
         <v>142</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F259">
+        <v>1</v>
+      </c>
+      <c r="G259" t="s">
+        <v>598</v>
+      </c>
+      <c r="H259" t="s">
+        <v>598</v>
+      </c>
+      <c r="I259" t="s">
+        <v>598</v>
+      </c>
+      <c r="J259" t="s">
+        <v>591</v>
+      </c>
+      <c r="K259" t="s">
+        <v>595</v>
+      </c>
+      <c r="L259" t="s">
+        <v>607</v>
+      </c>
+      <c r="M259" t="s">
+        <v>592</v>
+      </c>
+      <c r="N259" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -12277,8 +13906,35 @@
       <c r="E260">
         <v>141</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F260">
+        <v>1</v>
+      </c>
+      <c r="G260" t="s">
+        <v>598</v>
+      </c>
+      <c r="H260" t="s">
+        <v>595</v>
+      </c>
+      <c r="I260" t="s">
+        <v>598</v>
+      </c>
+      <c r="J260" t="s">
+        <v>591</v>
+      </c>
+      <c r="K260" t="s">
+        <v>595</v>
+      </c>
+      <c r="L260" t="s">
+        <v>595</v>
+      </c>
+      <c r="M260" t="s">
+        <v>623</v>
+      </c>
+      <c r="N260" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -12294,8 +13950,35 @@
       <c r="E261">
         <v>140</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261" t="s">
+        <v>598</v>
+      </c>
+      <c r="H261" t="s">
+        <v>598</v>
+      </c>
+      <c r="I261" t="s">
+        <v>598</v>
+      </c>
+      <c r="J261" t="s">
+        <v>591</v>
+      </c>
+      <c r="K261" t="s">
+        <v>595</v>
+      </c>
+      <c r="L261" t="s">
+        <v>595</v>
+      </c>
+      <c r="M261" t="s">
+        <v>592</v>
+      </c>
+      <c r="N261" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -12311,8 +13994,35 @@
       <c r="E262">
         <v>139</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262" t="s">
+        <v>598</v>
+      </c>
+      <c r="H262" t="s">
+        <v>598</v>
+      </c>
+      <c r="I262" t="s">
+        <v>598</v>
+      </c>
+      <c r="J262" t="s">
+        <v>591</v>
+      </c>
+      <c r="K262" t="s">
+        <v>595</v>
+      </c>
+      <c r="L262" t="s">
+        <v>607</v>
+      </c>
+      <c r="M262" t="s">
+        <v>608</v>
+      </c>
+      <c r="N262" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -12328,8 +14038,38 @@
       <c r="E263">
         <v>137</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F263">
+        <v>1</v>
+      </c>
+      <c r="G263" t="s">
+        <v>598</v>
+      </c>
+      <c r="H263" t="s">
+        <v>598</v>
+      </c>
+      <c r="I263" t="s">
+        <v>598</v>
+      </c>
+      <c r="J263" t="s">
+        <v>591</v>
+      </c>
+      <c r="K263" t="s">
+        <v>595</v>
+      </c>
+      <c r="L263" t="s">
+        <v>598</v>
+      </c>
+      <c r="M263" t="s">
+        <v>637</v>
+      </c>
+      <c r="N263" t="s">
+        <v>595</v>
+      </c>
+      <c r="O263" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -12345,8 +14085,35 @@
       <c r="E264">
         <v>136</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F264">
+        <v>1</v>
+      </c>
+      <c r="G264" t="s">
+        <v>598</v>
+      </c>
+      <c r="H264" t="s">
+        <v>598</v>
+      </c>
+      <c r="I264" t="s">
+        <v>598</v>
+      </c>
+      <c r="J264" t="s">
+        <v>591</v>
+      </c>
+      <c r="K264" t="s">
+        <v>595</v>
+      </c>
+      <c r="L264" t="s">
+        <v>607</v>
+      </c>
+      <c r="M264" t="s">
+        <v>592</v>
+      </c>
+      <c r="N264" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -12362,8 +14129,35 @@
       <c r="E265">
         <v>136</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F265">
+        <v>1</v>
+      </c>
+      <c r="G265" t="s">
+        <v>598</v>
+      </c>
+      <c r="H265" t="s">
+        <v>598</v>
+      </c>
+      <c r="I265" t="s">
+        <v>598</v>
+      </c>
+      <c r="J265" t="s">
+        <v>591</v>
+      </c>
+      <c r="K265" t="s">
+        <v>607</v>
+      </c>
+      <c r="L265" t="s">
+        <v>595</v>
+      </c>
+      <c r="M265" t="s">
+        <v>592</v>
+      </c>
+      <c r="N265" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -12379,8 +14173,35 @@
       <c r="E266">
         <v>132</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F266">
+        <v>1</v>
+      </c>
+      <c r="G266" t="s">
+        <v>598</v>
+      </c>
+      <c r="H266" t="s">
+        <v>598</v>
+      </c>
+      <c r="I266" t="s">
+        <v>598</v>
+      </c>
+      <c r="J266" t="s">
+        <v>591</v>
+      </c>
+      <c r="K266" t="s">
+        <v>595</v>
+      </c>
+      <c r="L266" t="s">
+        <v>607</v>
+      </c>
+      <c r="M266" t="s">
+        <v>592</v>
+      </c>
+      <c r="N266" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -12396,8 +14217,35 @@
       <c r="E267">
         <v>132</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F267">
+        <v>1</v>
+      </c>
+      <c r="G267" t="s">
+        <v>598</v>
+      </c>
+      <c r="H267" t="s">
+        <v>598</v>
+      </c>
+      <c r="I267" t="s">
+        <v>598</v>
+      </c>
+      <c r="J267" t="s">
+        <v>591</v>
+      </c>
+      <c r="K267" t="s">
+        <v>595</v>
+      </c>
+      <c r="L267" t="s">
+        <v>595</v>
+      </c>
+      <c r="M267" t="s">
+        <v>592</v>
+      </c>
+      <c r="N267" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -12413,8 +14261,35 @@
       <c r="E268">
         <v>132</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F268">
+        <v>1</v>
+      </c>
+      <c r="G268" t="s">
+        <v>598</v>
+      </c>
+      <c r="H268" t="s">
+        <v>598</v>
+      </c>
+      <c r="I268" t="s">
+        <v>598</v>
+      </c>
+      <c r="J268" t="s">
+        <v>591</v>
+      </c>
+      <c r="K268" t="s">
+        <v>607</v>
+      </c>
+      <c r="L268" t="s">
+        <v>595</v>
+      </c>
+      <c r="M268" t="s">
+        <v>592</v>
+      </c>
+      <c r="N268" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -12430,8 +14305,35 @@
       <c r="E269">
         <v>131</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F269">
+        <v>1</v>
+      </c>
+      <c r="G269" t="s">
+        <v>598</v>
+      </c>
+      <c r="H269" t="s">
+        <v>598</v>
+      </c>
+      <c r="I269" t="s">
+        <v>598</v>
+      </c>
+      <c r="J269" t="s">
+        <v>591</v>
+      </c>
+      <c r="K269" t="s">
+        <v>595</v>
+      </c>
+      <c r="L269" t="s">
+        <v>607</v>
+      </c>
+      <c r="M269" t="s">
+        <v>592</v>
+      </c>
+      <c r="N269" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -12447,8 +14349,38 @@
       <c r="E270">
         <v>129</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="F270">
+        <v>1</v>
+      </c>
+      <c r="G270" t="s">
+        <v>598</v>
+      </c>
+      <c r="H270" t="s">
+        <v>598</v>
+      </c>
+      <c r="I270" t="s">
+        <v>598</v>
+      </c>
+      <c r="J270" t="s">
+        <v>591</v>
+      </c>
+      <c r="K270" t="s">
+        <v>598</v>
+      </c>
+      <c r="L270" t="s">
+        <v>595</v>
+      </c>
+      <c r="M270" t="s">
+        <v>592</v>
+      </c>
+      <c r="N270" t="s">
+        <v>595</v>
+      </c>
+      <c r="O270" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -12464,8 +14396,35 @@
       <c r="E271">
         <v>129</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F271">
+        <v>1</v>
+      </c>
+      <c r="G271" t="s">
+        <v>598</v>
+      </c>
+      <c r="H271" t="s">
+        <v>598</v>
+      </c>
+      <c r="I271" t="s">
+        <v>598</v>
+      </c>
+      <c r="J271" t="s">
+        <v>591</v>
+      </c>
+      <c r="K271" t="s">
+        <v>607</v>
+      </c>
+      <c r="L271" t="s">
+        <v>595</v>
+      </c>
+      <c r="M271" t="s">
+        <v>608</v>
+      </c>
+      <c r="N271" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -12481,8 +14440,35 @@
       <c r="E272">
         <v>128</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F272">
+        <v>1</v>
+      </c>
+      <c r="G272" t="s">
+        <v>598</v>
+      </c>
+      <c r="H272" t="s">
+        <v>598</v>
+      </c>
+      <c r="I272" t="s">
+        <v>598</v>
+      </c>
+      <c r="J272" t="s">
+        <v>591</v>
+      </c>
+      <c r="K272" t="s">
+        <v>607</v>
+      </c>
+      <c r="L272" t="s">
+        <v>595</v>
+      </c>
+      <c r="M272" t="s">
+        <v>608</v>
+      </c>
+      <c r="N272" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -12498,8 +14484,35 @@
       <c r="E273">
         <v>127</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F273">
+        <v>1</v>
+      </c>
+      <c r="G273" t="s">
+        <v>598</v>
+      </c>
+      <c r="H273" t="s">
+        <v>598</v>
+      </c>
+      <c r="I273" t="s">
+        <v>598</v>
+      </c>
+      <c r="J273" t="s">
+        <v>591</v>
+      </c>
+      <c r="K273" t="s">
+        <v>595</v>
+      </c>
+      <c r="L273" t="s">
+        <v>607</v>
+      </c>
+      <c r="M273" t="s">
+        <v>592</v>
+      </c>
+      <c r="N273" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -12515,8 +14528,38 @@
       <c r="E274">
         <v>126</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F274">
+        <v>1</v>
+      </c>
+      <c r="G274" t="s">
+        <v>598</v>
+      </c>
+      <c r="H274" t="s">
+        <v>598</v>
+      </c>
+      <c r="I274" t="s">
+        <v>598</v>
+      </c>
+      <c r="J274" t="s">
+        <v>591</v>
+      </c>
+      <c r="K274" t="s">
+        <v>607</v>
+      </c>
+      <c r="L274" t="s">
+        <v>607</v>
+      </c>
+      <c r="M274" t="s">
+        <v>619</v>
+      </c>
+      <c r="N274" t="s">
+        <v>595</v>
+      </c>
+      <c r="O274" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -12532,8 +14575,35 @@
       <c r="E275">
         <v>126</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F275">
+        <v>1</v>
+      </c>
+      <c r="G275" t="s">
+        <v>598</v>
+      </c>
+      <c r="H275" t="s">
+        <v>598</v>
+      </c>
+      <c r="I275" t="s">
+        <v>598</v>
+      </c>
+      <c r="J275" t="s">
+        <v>591</v>
+      </c>
+      <c r="K275" t="s">
+        <v>595</v>
+      </c>
+      <c r="L275" t="s">
+        <v>595</v>
+      </c>
+      <c r="M275" t="s">
+        <v>592</v>
+      </c>
+      <c r="N275" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -12549,8 +14619,35 @@
       <c r="E276">
         <v>126</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F276">
+        <v>1</v>
+      </c>
+      <c r="G276" t="s">
+        <v>598</v>
+      </c>
+      <c r="H276" t="s">
+        <v>598</v>
+      </c>
+      <c r="I276" t="s">
+        <v>598</v>
+      </c>
+      <c r="J276" t="s">
+        <v>605</v>
+      </c>
+      <c r="K276" t="s">
+        <v>595</v>
+      </c>
+      <c r="L276" t="s">
+        <v>595</v>
+      </c>
+      <c r="M276" t="s">
+        <v>592</v>
+      </c>
+      <c r="N276" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -12566,8 +14663,35 @@
       <c r="E277">
         <v>14</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="G277" t="s">
+        <v>598</v>
+      </c>
+      <c r="H277" t="s">
+        <v>598</v>
+      </c>
+      <c r="I277" t="s">
+        <v>598</v>
+      </c>
+      <c r="J277" t="s">
+        <v>591</v>
+      </c>
+      <c r="K277" t="s">
+        <v>595</v>
+      </c>
+      <c r="L277" t="s">
+        <v>595</v>
+      </c>
+      <c r="M277" t="s">
+        <v>592</v>
+      </c>
+      <c r="N277" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -12583,8 +14707,35 @@
       <c r="E278">
         <v>15</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F278">
+        <v>1</v>
+      </c>
+      <c r="G278" t="s">
+        <v>598</v>
+      </c>
+      <c r="H278" t="s">
+        <v>598</v>
+      </c>
+      <c r="I278" t="s">
+        <v>598</v>
+      </c>
+      <c r="J278" t="s">
+        <v>591</v>
+      </c>
+      <c r="K278" t="s">
+        <v>595</v>
+      </c>
+      <c r="L278" t="s">
+        <v>595</v>
+      </c>
+      <c r="M278" t="s">
+        <v>608</v>
+      </c>
+      <c r="N278" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -12600,8 +14751,35 @@
       <c r="E279">
         <v>17</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F279">
+        <v>1</v>
+      </c>
+      <c r="G279" t="s">
+        <v>598</v>
+      </c>
+      <c r="H279" t="s">
+        <v>598</v>
+      </c>
+      <c r="I279" t="s">
+        <v>598</v>
+      </c>
+      <c r="J279" t="s">
+        <v>591</v>
+      </c>
+      <c r="K279" t="s">
+        <v>595</v>
+      </c>
+      <c r="L279" t="s">
+        <v>607</v>
+      </c>
+      <c r="M279" t="s">
+        <v>592</v>
+      </c>
+      <c r="N279" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -12618,7 +14796,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -12635,7 +14813,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -12652,7 +14830,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -12669,7 +14847,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -12686,7 +14864,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -12703,7 +14881,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -12720,7 +14898,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -12737,7 +14915,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>286</v>
       </c>

--- a/data/part_1_df_title_subset.xlsx
+++ b/data/part_1_df_title_subset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BA4B86-1472-144B-9B44-167B40C9C739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDC8F94-8439-B44A-B611-7C9FD2FF772C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9980" yWindow="760" windowWidth="20260" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3149" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3330" uniqueCount="673">
   <si>
     <t>type</t>
   </si>
@@ -2045,6 +2045,18 @@
   </si>
   <si>
     <t>landing page does not include full title</t>
+  </si>
+  <si>
+    <t>weirdly, the abstract is in "en"</t>
+  </si>
+  <si>
+    <t>ORCID used as &lt;title&gt;</t>
+  </si>
+  <si>
+    <t>"en" first in paper, then "ro"</t>
+  </si>
+  <si>
+    <t>Metadata does not match article or landing page</t>
   </si>
 </sst>
 </file>
@@ -2452,10 +2464,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C280" sqref="C280"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14795,6 +14807,33 @@
       <c r="E280">
         <v>29</v>
       </c>
+      <c r="F280">
+        <v>1</v>
+      </c>
+      <c r="G280" t="s">
+        <v>598</v>
+      </c>
+      <c r="H280" t="s">
+        <v>598</v>
+      </c>
+      <c r="I280" t="s">
+        <v>598</v>
+      </c>
+      <c r="J280" t="s">
+        <v>591</v>
+      </c>
+      <c r="K280" t="s">
+        <v>595</v>
+      </c>
+      <c r="L280" t="s">
+        <v>595</v>
+      </c>
+      <c r="M280" t="s">
+        <v>592</v>
+      </c>
+      <c r="N280" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="281" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
@@ -14812,6 +14851,33 @@
       <c r="E281">
         <v>31</v>
       </c>
+      <c r="F281">
+        <v>1</v>
+      </c>
+      <c r="G281" t="s">
+        <v>598</v>
+      </c>
+      <c r="H281" t="s">
+        <v>598</v>
+      </c>
+      <c r="I281" t="s">
+        <v>598</v>
+      </c>
+      <c r="J281" t="s">
+        <v>591</v>
+      </c>
+      <c r="K281" t="s">
+        <v>595</v>
+      </c>
+      <c r="L281" t="s">
+        <v>598</v>
+      </c>
+      <c r="M281" t="s">
+        <v>623</v>
+      </c>
+      <c r="N281" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="282" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
@@ -14829,6 +14895,33 @@
       <c r="E282">
         <v>32</v>
       </c>
+      <c r="F282">
+        <v>1</v>
+      </c>
+      <c r="G282" t="s">
+        <v>598</v>
+      </c>
+      <c r="H282" t="s">
+        <v>598</v>
+      </c>
+      <c r="I282" t="s">
+        <v>598</v>
+      </c>
+      <c r="J282" t="s">
+        <v>591</v>
+      </c>
+      <c r="K282" t="s">
+        <v>595</v>
+      </c>
+      <c r="L282" t="s">
+        <v>595</v>
+      </c>
+      <c r="M282" t="s">
+        <v>592</v>
+      </c>
+      <c r="N282" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="283" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
@@ -14846,6 +14939,33 @@
       <c r="E283">
         <v>33</v>
       </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+      <c r="G283" t="s">
+        <v>598</v>
+      </c>
+      <c r="H283" t="s">
+        <v>598</v>
+      </c>
+      <c r="I283" t="s">
+        <v>598</v>
+      </c>
+      <c r="J283" t="s">
+        <v>591</v>
+      </c>
+      <c r="K283" t="s">
+        <v>595</v>
+      </c>
+      <c r="L283" t="s">
+        <v>595</v>
+      </c>
+      <c r="M283" t="s">
+        <v>592</v>
+      </c>
+      <c r="N283" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="284" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
@@ -14863,6 +14983,36 @@
       <c r="E284">
         <v>33</v>
       </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
+      <c r="G284" t="s">
+        <v>598</v>
+      </c>
+      <c r="H284" t="s">
+        <v>598</v>
+      </c>
+      <c r="I284" t="s">
+        <v>598</v>
+      </c>
+      <c r="J284" t="s">
+        <v>591</v>
+      </c>
+      <c r="K284" t="s">
+        <v>595</v>
+      </c>
+      <c r="L284" t="s">
+        <v>595</v>
+      </c>
+      <c r="M284" t="s">
+        <v>592</v>
+      </c>
+      <c r="N284" t="s">
+        <v>595</v>
+      </c>
+      <c r="O284" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="285" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
@@ -14880,6 +15030,33 @@
       <c r="E285">
         <v>36</v>
       </c>
+      <c r="F285">
+        <v>1</v>
+      </c>
+      <c r="G285" t="s">
+        <v>598</v>
+      </c>
+      <c r="H285" t="s">
+        <v>598</v>
+      </c>
+      <c r="I285" t="s">
+        <v>598</v>
+      </c>
+      <c r="J285" t="s">
+        <v>605</v>
+      </c>
+      <c r="K285" t="s">
+        <v>595</v>
+      </c>
+      <c r="L285" t="s">
+        <v>595</v>
+      </c>
+      <c r="M285" t="s">
+        <v>592</v>
+      </c>
+      <c r="N285" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="286" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
@@ -14897,22 +15074,79 @@
       <c r="E286">
         <v>36</v>
       </c>
+      <c r="F286">
+        <v>1</v>
+      </c>
+      <c r="G286" t="s">
+        <v>598</v>
+      </c>
+      <c r="H286" t="s">
+        <v>598</v>
+      </c>
+      <c r="I286" t="s">
+        <v>598</v>
+      </c>
+      <c r="J286" t="s">
+        <v>591</v>
+      </c>
+      <c r="K286" t="s">
+        <v>595</v>
+      </c>
+      <c r="L286" t="s">
+        <v>595</v>
+      </c>
+      <c r="M286" t="s">
+        <v>592</v>
+      </c>
+      <c r="N286" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="287" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A287" s="1">
+      <c r="A287" s="6">
         <v>285</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="C287" t="s">
+      <c r="C287" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="D287" s="3" t="s">
+      <c r="D287" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="E287">
+      <c r="E287" s="7">
         <v>37</v>
+      </c>
+      <c r="F287" s="7">
+        <v>1</v>
+      </c>
+      <c r="G287" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="H287" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="I287" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="J287" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="K287" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="L287" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="M287" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="N287" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="O287" s="7" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="288" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -14931,8 +15165,35 @@
       <c r="E288">
         <v>40</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F288">
+        <v>1</v>
+      </c>
+      <c r="G288" t="s">
+        <v>598</v>
+      </c>
+      <c r="H288" t="s">
+        <v>598</v>
+      </c>
+      <c r="I288" t="s">
+        <v>598</v>
+      </c>
+      <c r="J288" t="s">
+        <v>591</v>
+      </c>
+      <c r="K288" t="s">
+        <v>595</v>
+      </c>
+      <c r="L288" t="s">
+        <v>595</v>
+      </c>
+      <c r="M288" t="s">
+        <v>592</v>
+      </c>
+      <c r="N288" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -14948,8 +15209,35 @@
       <c r="E289">
         <v>41</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F289">
+        <v>1</v>
+      </c>
+      <c r="G289" t="s">
+        <v>598</v>
+      </c>
+      <c r="H289" t="s">
+        <v>598</v>
+      </c>
+      <c r="I289" t="s">
+        <v>598</v>
+      </c>
+      <c r="J289" t="s">
+        <v>591</v>
+      </c>
+      <c r="K289" t="s">
+        <v>595</v>
+      </c>
+      <c r="L289" t="s">
+        <v>595</v>
+      </c>
+      <c r="M289" t="s">
+        <v>592</v>
+      </c>
+      <c r="N289" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -14965,8 +15253,38 @@
       <c r="E290">
         <v>41</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F290">
+        <v>1</v>
+      </c>
+      <c r="G290" t="s">
+        <v>598</v>
+      </c>
+      <c r="H290" t="s">
+        <v>598</v>
+      </c>
+      <c r="I290" t="s">
+        <v>598</v>
+      </c>
+      <c r="J290" t="s">
+        <v>591</v>
+      </c>
+      <c r="K290" t="s">
+        <v>595</v>
+      </c>
+      <c r="L290" t="s">
+        <v>598</v>
+      </c>
+      <c r="M290" t="s">
+        <v>623</v>
+      </c>
+      <c r="N290" t="s">
+        <v>595</v>
+      </c>
+      <c r="O290" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -14982,8 +15300,35 @@
       <c r="E291">
         <v>42</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F291">
+        <v>1</v>
+      </c>
+      <c r="G291" t="s">
+        <v>598</v>
+      </c>
+      <c r="H291" t="s">
+        <v>598</v>
+      </c>
+      <c r="I291" t="s">
+        <v>598</v>
+      </c>
+      <c r="J291" t="s">
+        <v>591</v>
+      </c>
+      <c r="K291" t="s">
+        <v>595</v>
+      </c>
+      <c r="L291" t="s">
+        <v>607</v>
+      </c>
+      <c r="M291" t="s">
+        <v>592</v>
+      </c>
+      <c r="N291" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -14999,8 +15344,38 @@
       <c r="E292">
         <v>42</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292" t="s">
+        <v>598</v>
+      </c>
+      <c r="H292" t="s">
+        <v>595</v>
+      </c>
+      <c r="I292" t="s">
+        <v>598</v>
+      </c>
+      <c r="J292" t="s">
+        <v>591</v>
+      </c>
+      <c r="K292" t="s">
+        <v>595</v>
+      </c>
+      <c r="L292" t="s">
+        <v>598</v>
+      </c>
+      <c r="M292" t="s">
+        <v>660</v>
+      </c>
+      <c r="N292" t="s">
+        <v>595</v>
+      </c>
+      <c r="O292" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -15016,8 +15391,35 @@
       <c r="E293">
         <v>43</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F293">
+        <v>1</v>
+      </c>
+      <c r="G293" t="s">
+        <v>598</v>
+      </c>
+      <c r="H293" t="s">
+        <v>598</v>
+      </c>
+      <c r="I293" t="s">
+        <v>598</v>
+      </c>
+      <c r="J293" t="s">
+        <v>591</v>
+      </c>
+      <c r="K293" t="s">
+        <v>607</v>
+      </c>
+      <c r="L293" t="s">
+        <v>595</v>
+      </c>
+      <c r="M293" t="s">
+        <v>592</v>
+      </c>
+      <c r="N293" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -15033,8 +15435,35 @@
       <c r="E294">
         <v>44</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F294">
+        <v>1</v>
+      </c>
+      <c r="G294" t="s">
+        <v>598</v>
+      </c>
+      <c r="H294" t="s">
+        <v>598</v>
+      </c>
+      <c r="I294" t="s">
+        <v>598</v>
+      </c>
+      <c r="J294" t="s">
+        <v>591</v>
+      </c>
+      <c r="K294" t="s">
+        <v>595</v>
+      </c>
+      <c r="L294" t="s">
+        <v>607</v>
+      </c>
+      <c r="M294" t="s">
+        <v>608</v>
+      </c>
+      <c r="N294" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -15050,8 +15479,35 @@
       <c r="E295">
         <v>45</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F295">
+        <v>1</v>
+      </c>
+      <c r="G295" t="s">
+        <v>598</v>
+      </c>
+      <c r="H295" t="s">
+        <v>598</v>
+      </c>
+      <c r="I295" t="s">
+        <v>598</v>
+      </c>
+      <c r="J295" t="s">
+        <v>591</v>
+      </c>
+      <c r="K295" t="s">
+        <v>595</v>
+      </c>
+      <c r="L295" t="s">
+        <v>607</v>
+      </c>
+      <c r="M295" t="s">
+        <v>592</v>
+      </c>
+      <c r="N295" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -15067,8 +15523,35 @@
       <c r="E296">
         <v>45</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F296">
+        <v>1</v>
+      </c>
+      <c r="G296" t="s">
+        <v>598</v>
+      </c>
+      <c r="H296" t="s">
+        <v>595</v>
+      </c>
+      <c r="I296" t="s">
+        <v>598</v>
+      </c>
+      <c r="J296" t="s">
+        <v>616</v>
+      </c>
+      <c r="K296" t="s">
+        <v>595</v>
+      </c>
+      <c r="L296" t="s">
+        <v>598</v>
+      </c>
+      <c r="M296" t="s">
+        <v>617</v>
+      </c>
+      <c r="N296" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -15084,8 +15567,35 @@
       <c r="E297">
         <v>45</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F297">
+        <v>1</v>
+      </c>
+      <c r="G297" t="s">
+        <v>598</v>
+      </c>
+      <c r="H297" t="s">
+        <v>598</v>
+      </c>
+      <c r="I297" t="s">
+        <v>598</v>
+      </c>
+      <c r="J297" t="s">
+        <v>591</v>
+      </c>
+      <c r="K297" t="s">
+        <v>595</v>
+      </c>
+      <c r="L297" t="s">
+        <v>595</v>
+      </c>
+      <c r="M297" t="s">
+        <v>592</v>
+      </c>
+      <c r="N297" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -15101,8 +15611,38 @@
       <c r="E298">
         <v>47</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F298">
+        <v>1</v>
+      </c>
+      <c r="G298" t="s">
+        <v>598</v>
+      </c>
+      <c r="H298" t="s">
+        <v>598</v>
+      </c>
+      <c r="I298" t="s">
+        <v>598</v>
+      </c>
+      <c r="J298" t="s">
+        <v>591</v>
+      </c>
+      <c r="K298" t="s">
+        <v>598</v>
+      </c>
+      <c r="L298" t="s">
+        <v>598</v>
+      </c>
+      <c r="M298" t="s">
+        <v>655</v>
+      </c>
+      <c r="N298" t="s">
+        <v>595</v>
+      </c>
+      <c r="O298" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -15118,8 +15658,35 @@
       <c r="E299">
         <v>49</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F299">
+        <v>1</v>
+      </c>
+      <c r="G299" t="s">
+        <v>598</v>
+      </c>
+      <c r="H299" t="s">
+        <v>598</v>
+      </c>
+      <c r="I299" t="s">
+        <v>598</v>
+      </c>
+      <c r="J299" t="s">
+        <v>591</v>
+      </c>
+      <c r="K299" t="s">
+        <v>595</v>
+      </c>
+      <c r="L299" t="s">
+        <v>595</v>
+      </c>
+      <c r="M299" t="s">
+        <v>592</v>
+      </c>
+      <c r="N299" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -15135,8 +15702,35 @@
       <c r="E300">
         <v>49</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="F300">
+        <v>1</v>
+      </c>
+      <c r="G300" t="s">
+        <v>598</v>
+      </c>
+      <c r="H300" t="s">
+        <v>598</v>
+      </c>
+      <c r="I300" t="s">
+        <v>598</v>
+      </c>
+      <c r="J300" t="s">
+        <v>591</v>
+      </c>
+      <c r="K300" t="s">
+        <v>607</v>
+      </c>
+      <c r="L300" t="s">
+        <v>595</v>
+      </c>
+      <c r="M300" t="s">
+        <v>608</v>
+      </c>
+      <c r="N300" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -15151,6 +15745,33 @@
       </c>
       <c r="E301">
         <v>50</v>
+      </c>
+      <c r="F301">
+        <v>1</v>
+      </c>
+      <c r="G301" t="s">
+        <v>598</v>
+      </c>
+      <c r="H301" t="s">
+        <v>598</v>
+      </c>
+      <c r="I301" t="s">
+        <v>598</v>
+      </c>
+      <c r="J301" t="s">
+        <v>591</v>
+      </c>
+      <c r="K301" t="s">
+        <v>595</v>
+      </c>
+      <c r="L301" t="s">
+        <v>607</v>
+      </c>
+      <c r="M301" t="s">
+        <v>592</v>
+      </c>
+      <c r="N301" t="s">
+        <v>595</v>
       </c>
     </row>
   </sheetData>

--- a/data/part_1_df_title_subset.xlsx
+++ b/data/part_1_df_title_subset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDC8F94-8439-B44A-B611-7C9FD2FF772C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB955A5-5152-E547-A6B3-D7577111F672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="760" windowWidth="20260" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3160" yWindow="860" windowWidth="26880" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="title_subset_analysis" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3330" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3354" uniqueCount="673">
   <si>
     <t>type</t>
   </si>
@@ -2464,16 +2464,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="39.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="114.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="73.83203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="12" width="16.83203125" customWidth="1"/>
@@ -2551,6 +2551,9 @@
       <c r="H2" t="s">
         <v>598</v>
       </c>
+      <c r="I2" t="s">
+        <v>595</v>
+      </c>
       <c r="J2" t="s">
         <v>591</v>
       </c>
@@ -2563,6 +2566,9 @@
       <c r="M2" t="s">
         <v>612</v>
       </c>
+      <c r="N2" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="3" spans="1:15" ht="112" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -2603,6 +2609,9 @@
       </c>
       <c r="M3" t="s">
         <v>612</v>
+      </c>
+      <c r="N3" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="64" x14ac:dyDescent="0.2">
@@ -2630,6 +2639,9 @@
       <c r="H4" t="s">
         <v>598</v>
       </c>
+      <c r="I4" t="s">
+        <v>598</v>
+      </c>
       <c r="J4" t="s">
         <v>591</v>
       </c>
@@ -2641,6 +2653,9 @@
       </c>
       <c r="M4" t="s">
         <v>592</v>
+      </c>
+      <c r="N4" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -2668,6 +2683,9 @@
       <c r="H5" t="s">
         <v>598</v>
       </c>
+      <c r="I5" t="s">
+        <v>598</v>
+      </c>
       <c r="J5" t="s">
         <v>591</v>
       </c>
@@ -2679,6 +2697,9 @@
       </c>
       <c r="M5" t="s">
         <v>592</v>
+      </c>
+      <c r="N5" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -2706,6 +2727,9 @@
       <c r="H6" t="s">
         <v>598</v>
       </c>
+      <c r="I6" t="s">
+        <v>598</v>
+      </c>
       <c r="J6" t="s">
         <v>591</v>
       </c>
@@ -2717,6 +2741,9 @@
       </c>
       <c r="M6" t="s">
         <v>592</v>
+      </c>
+      <c r="N6" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="64" x14ac:dyDescent="0.2">
@@ -2758,6 +2785,9 @@
       </c>
       <c r="M7" t="s">
         <v>610</v>
+      </c>
+      <c r="N7" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -2785,6 +2815,9 @@
       <c r="H8" t="s">
         <v>598</v>
       </c>
+      <c r="I8" t="s">
+        <v>598</v>
+      </c>
       <c r="J8" t="s">
         <v>591</v>
       </c>
@@ -2796,6 +2829,9 @@
       </c>
       <c r="M8" t="s">
         <v>592</v>
+      </c>
+      <c r="N8" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -2823,6 +2859,9 @@
       <c r="H9" t="s">
         <v>598</v>
       </c>
+      <c r="I9" t="s">
+        <v>598</v>
+      </c>
       <c r="J9" t="s">
         <v>591</v>
       </c>
@@ -2834,6 +2873,9 @@
       </c>
       <c r="M9" t="s">
         <v>592</v>
+      </c>
+      <c r="N9" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -2861,6 +2903,9 @@
       <c r="H10" t="s">
         <v>598</v>
       </c>
+      <c r="I10" t="s">
+        <v>598</v>
+      </c>
       <c r="J10" t="s">
         <v>591</v>
       </c>
@@ -2872,6 +2917,9 @@
       </c>
       <c r="M10" t="s">
         <v>592</v>
+      </c>
+      <c r="N10" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -2899,6 +2947,9 @@
       <c r="H11" t="s">
         <v>598</v>
       </c>
+      <c r="I11" t="s">
+        <v>598</v>
+      </c>
       <c r="J11" t="s">
         <v>591</v>
       </c>
@@ -2910,6 +2961,9 @@
       </c>
       <c r="M11" t="s">
         <v>596</v>
+      </c>
+      <c r="N11" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="48" x14ac:dyDescent="0.2">
@@ -2937,6 +2991,9 @@
       <c r="H12" t="s">
         <v>598</v>
       </c>
+      <c r="I12" t="s">
+        <v>598</v>
+      </c>
       <c r="J12" t="s">
         <v>591</v>
       </c>
@@ -2978,6 +3035,9 @@
       <c r="H13" t="s">
         <v>598</v>
       </c>
+      <c r="I13" t="s">
+        <v>595</v>
+      </c>
       <c r="J13" t="s">
         <v>591</v>
       </c>
@@ -3019,6 +3079,9 @@
       <c r="H14" t="s">
         <v>598</v>
       </c>
+      <c r="I14" t="s">
+        <v>598</v>
+      </c>
       <c r="J14" t="s">
         <v>591</v>
       </c>
@@ -3060,6 +3123,9 @@
       <c r="H15" t="s">
         <v>598</v>
       </c>
+      <c r="I15" t="s">
+        <v>595</v>
+      </c>
       <c r="J15" t="s">
         <v>591</v>
       </c>
@@ -3101,6 +3167,9 @@
       <c r="H16" t="s">
         <v>598</v>
       </c>
+      <c r="I16" t="s">
+        <v>595</v>
+      </c>
       <c r="J16" t="s">
         <v>591</v>
       </c>
@@ -3142,6 +3211,9 @@
       <c r="H17" t="s">
         <v>598</v>
       </c>
+      <c r="I17" t="s">
+        <v>598</v>
+      </c>
       <c r="J17" t="s">
         <v>591</v>
       </c>
@@ -15776,5 +15848,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>